--- a/data_month/zb/价格指数/居民消费价格分类指数(上月=100)/全国居民消费价格分类指数(上月=100)(-2015).xlsx
+++ b/data_month/zb/价格指数/居民消费价格分类指数(上月=100)/全国居民消费价格分类指数(上月=100)(-2015).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -483,7 +483,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2001年10月</t>
+          <t>2001-01</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -492,7 +492,7 @@
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>100.3</v>
+        <v>101.9</v>
       </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
@@ -501,7 +501,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年11月</t>
+          <t>2001-02</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -510,7 +510,7 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>99.8</v>
+        <v>100.2</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
@@ -519,7 +519,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2001年12月</t>
+          <t>2001-03</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
@@ -528,7 +528,7 @@
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
-        <v>100.1</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
@@ -537,7 +537,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2001年1月</t>
+          <t>2001-04</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
@@ -546,7 +546,7 @@
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>101.9</v>
+        <v>100.2</v>
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
@@ -555,7 +555,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2001年2月</t>
+          <t>2001-05</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
@@ -564,7 +564,7 @@
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>100.2</v>
+        <v>99.5</v>
       </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
@@ -573,7 +573,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2001年3月</t>
+          <t>2001-06</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -582,7 +582,7 @@
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>99.40000000000001</v>
+        <v>98.8</v>
       </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
@@ -591,7 +591,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2001年4月</t>
+          <t>2001-07</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
@@ -600,7 +600,7 @@
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="n">
-        <v>100.2</v>
+        <v>99.5</v>
       </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
@@ -609,7 +609,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2001年5月</t>
+          <t>2001-08</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
@@ -618,7 +618,7 @@
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
-        <v>99.5</v>
+        <v>100.1</v>
       </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
@@ -627,7 +627,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2001年6月</t>
+          <t>2001-09</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
@@ -636,7 +636,7 @@
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="n">
-        <v>98.8</v>
+        <v>100.9</v>
       </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
@@ -645,7 +645,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2001年7月</t>
+          <t>2001-10</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
@@ -654,7 +654,7 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
-        <v>99.5</v>
+        <v>100.3</v>
       </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
@@ -663,7 +663,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2001年8月</t>
+          <t>2001-11</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
@@ -672,7 +672,7 @@
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="n">
-        <v>100.1</v>
+        <v>99.8</v>
       </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
@@ -681,7 +681,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2001年9月</t>
+          <t>2001-12</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
@@ -690,7 +690,7 @@
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="n">
-        <v>100.9</v>
+        <v>100.1</v>
       </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
@@ -699,7 +699,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2002年10月</t>
+          <t>2002-01</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
@@ -708,7 +708,7 @@
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="n">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
@@ -717,7 +717,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2002年11月</t>
+          <t>2002-02</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
@@ -726,7 +726,7 @@
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="n">
-        <v>99.90000000000001</v>
+        <v>101.1</v>
       </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
@@ -735,7 +735,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2002年12月</t>
+          <t>2002-03</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
@@ -744,7 +744,7 @@
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="n">
-        <v>100.3</v>
+        <v>98.7</v>
       </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
@@ -753,7 +753,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2002年1月</t>
+          <t>2002-04</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
@@ -762,7 +762,7 @@
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="n">
-        <v>100.3</v>
+        <v>99.7</v>
       </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
@@ -771,7 +771,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2002年2月</t>
+          <t>2002-05</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
@@ -780,7 +780,7 @@
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="n">
-        <v>101.1</v>
+        <v>99.7</v>
       </c>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
@@ -789,7 +789,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2002年3月</t>
+          <t>2002-06</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
@@ -798,7 +798,7 @@
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="n">
-        <v>98.7</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
@@ -807,7 +807,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2002年4月</t>
+          <t>2002-07</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
@@ -816,7 +816,7 @@
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="n">
-        <v>99.7</v>
+        <v>99.3</v>
       </c>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
@@ -825,7 +825,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2002年5月</t>
+          <t>2002-08</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
@@ -834,7 +834,7 @@
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="n">
-        <v>99.7</v>
+        <v>100.3</v>
       </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
@@ -843,7 +843,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2002年6月</t>
+          <t>2002-09</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
@@ -852,7 +852,7 @@
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="n">
-        <v>99.09999999999999</v>
+        <v>101</v>
       </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
@@ -861,7 +861,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2002年7月</t>
+          <t>2002-10</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
@@ -870,7 +870,7 @@
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="n">
-        <v>99.3</v>
+        <v>100.2</v>
       </c>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
@@ -879,7 +879,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2002年8月</t>
+          <t>2002-11</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -888,7 +888,7 @@
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="n">
-        <v>100.3</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
@@ -897,7 +897,7 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2002年9月</t>
+          <t>2002-12</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
@@ -906,7 +906,7 @@
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="n">
-        <v>101</v>
+        <v>100.3</v>
       </c>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
@@ -915,7 +915,7 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2003年10月</t>
+          <t>2003-01</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
@@ -924,7 +924,7 @@
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="n">
-        <v>100.9</v>
+        <v>101.1</v>
       </c>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
@@ -933,7 +933,7 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2003年11月</t>
+          <t>2003-02</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
@@ -942,7 +942,7 @@
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="n">
-        <v>101</v>
+        <v>100.9</v>
       </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
@@ -951,7 +951,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2003年12月</t>
+          <t>2003-03</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
@@ -960,7 +960,7 @@
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="n">
-        <v>100.6</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
@@ -969,7 +969,7 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2003年1月</t>
+          <t>2003-04</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
@@ -978,7 +978,7 @@
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="n">
-        <v>101.1</v>
+        <v>99.8</v>
       </c>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
@@ -987,7 +987,7 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2003年2月</t>
+          <t>2003-05</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
@@ -996,7 +996,7 @@
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="n">
-        <v>100.9</v>
+        <v>99.3</v>
       </c>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
@@ -1005,7 +1005,7 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2003年3月</t>
+          <t>2003-06</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
@@ -1014,7 +1014,7 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="n">
-        <v>99.40000000000001</v>
+        <v>98.8</v>
       </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
@@ -1023,7 +1023,7 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2003年4月</t>
+          <t>2003-07</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
@@ -1032,7 +1032,7 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="n">
-        <v>99.8</v>
+        <v>99.5</v>
       </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
@@ -1041,7 +1041,7 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2003年5月</t>
+          <t>2003-08</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
@@ -1050,7 +1050,7 @@
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="n">
-        <v>99.3</v>
+        <v>100.7</v>
       </c>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
@@ -1059,7 +1059,7 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2003年6月</t>
+          <t>2003-09</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
@@ -1068,7 +1068,7 @@
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="n">
-        <v>98.8</v>
+        <v>101.2</v>
       </c>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
@@ -1077,7 +1077,7 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2003年7月</t>
+          <t>2003-10</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
@@ -1086,7 +1086,7 @@
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="n">
-        <v>99.5</v>
+        <v>100.9</v>
       </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
@@ -1095,7 +1095,7 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2003年8月</t>
+          <t>2003-11</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
@@ -1104,7 +1104,7 @@
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="n">
-        <v>100.7</v>
+        <v>101</v>
       </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
@@ -1113,7 +1113,7 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2003年9月</t>
+          <t>2003-12</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
@@ -1122,7 +1122,7 @@
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="n">
-        <v>101.2</v>
+        <v>100.6</v>
       </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
@@ -1131,7 +1131,7 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2004年10月</t>
+          <t>2004-01</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
@@ -1140,7 +1140,7 @@
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="n">
-        <v>100</v>
+        <v>101.1</v>
       </c>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
@@ -1149,7 +1149,7 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2004年11月</t>
+          <t>2004-02</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -1158,7 +1158,7 @@
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="n">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
@@ -1167,7 +1167,7 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2004年12月</t>
+          <t>2004-03</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
@@ -1176,7 +1176,7 @@
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="n">
-        <v>100.1</v>
+        <v>100.3</v>
       </c>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
@@ -1185,7 +1185,7 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2004年1月</t>
+          <t>2004-04</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
@@ -1194,7 +1194,7 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="n">
-        <v>101.1</v>
+        <v>100.5</v>
       </c>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
@@ -1203,7 +1203,7 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2004年2月</t>
+          <t>2004-05</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
@@ -1212,7 +1212,7 @@
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="n">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
@@ -1221,7 +1221,7 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2004年3月</t>
+          <t>2004-06</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
@@ -1230,7 +1230,7 @@
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="n">
-        <v>100.3</v>
+        <v>99.3</v>
       </c>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
@@ -1239,7 +1239,7 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2004年4月</t>
+          <t>2004-07</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
@@ -1248,7 +1248,7 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="n">
-        <v>100.5</v>
+        <v>99.8</v>
       </c>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
@@ -1257,7 +1257,7 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2004年5月</t>
+          <t>2004-08</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
@@ -1266,7 +1266,7 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="n">
-        <v>99.90000000000001</v>
+        <v>100.7</v>
       </c>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
@@ -1275,7 +1275,7 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2004年6月</t>
+          <t>2004-09</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
@@ -1284,7 +1284,7 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="n">
-        <v>99.3</v>
+        <v>101.1</v>
       </c>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
@@ -1293,7 +1293,7 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2004年7月</t>
+          <t>2004-10</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
@@ -1302,7 +1302,7 @@
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="n">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
@@ -1311,7 +1311,7 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2004年8月</t>
+          <t>2004-11</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
@@ -1320,7 +1320,7 @@
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="n">
-        <v>100.7</v>
+        <v>99.7</v>
       </c>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
@@ -1329,7 +1329,7 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2004年9月</t>
+          <t>2004-12</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
@@ -1338,7 +1338,7 @@
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="n">
-        <v>101.1</v>
+        <v>100.1</v>
       </c>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
@@ -1347,7 +1347,7 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2005年10月</t>
+          <t>2005-01</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
@@ -1356,7 +1356,7 @@
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="n">
-        <v>100.4</v>
+        <v>100.6</v>
       </c>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
@@ -1365,7 +1365,7 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2005年11月</t>
+          <t>2005-02</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
@@ -1374,7 +1374,7 @@
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="n">
-        <v>99.7</v>
+        <v>101.8</v>
       </c>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
@@ -1383,7 +1383,7 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2005年12月</t>
+          <t>2005-03</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
@@ -1392,7 +1392,7 @@
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="n">
-        <v>100.4</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
@@ -1401,7 +1401,7 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2005年1月</t>
+          <t>2005-04</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
@@ -1410,7 +1410,7 @@
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="n">
-        <v>100.6</v>
+        <v>99.7</v>
       </c>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
@@ -1419,7 +1419,7 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2005年2月</t>
+          <t>2005-05</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
@@ -1428,7 +1428,7 @@
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="n">
-        <v>101.8</v>
+        <v>99.8</v>
       </c>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
@@ -1437,7 +1437,7 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2005年3月</t>
+          <t>2005-06</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
@@ -1446,7 +1446,7 @@
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="n">
-        <v>99.09999999999999</v>
+        <v>99.18000000000001</v>
       </c>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
@@ -1455,7 +1455,7 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2005年4月</t>
+          <t>2005-07</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
@@ -1464,7 +1464,7 @@
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="n">
-        <v>99.7</v>
+        <v>100</v>
       </c>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
@@ -1473,7 +1473,7 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2005年5月</t>
+          <t>2005-08</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
@@ -1482,7 +1482,7 @@
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="n">
-        <v>99.8</v>
+        <v>100.2</v>
       </c>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
@@ -1491,7 +1491,7 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2005年6月</t>
+          <t>2005-09</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
@@ -1500,7 +1500,7 @@
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="n">
-        <v>99.18000000000001</v>
+        <v>100.73</v>
       </c>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
@@ -1509,7 +1509,7 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2005年7月</t>
+          <t>2005-10</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
@@ -1518,7 +1518,7 @@
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="n">
-        <v>100</v>
+        <v>100.4</v>
       </c>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
@@ -1527,7 +1527,7 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2005年8月</t>
+          <t>2005-11</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
@@ -1536,7 +1536,7 @@
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="n">
-        <v>100.2</v>
+        <v>99.7</v>
       </c>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
@@ -1545,7 +1545,7 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2005年9月</t>
+          <t>2005-12</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
@@ -1554,7 +1554,7 @@
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="n">
-        <v>100.73</v>
+        <v>100.4</v>
       </c>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
@@ -1563,7 +1563,7 @@
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2006年10月</t>
+          <t>2006-01</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
@@ -1572,7 +1572,7 @@
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="n">
-        <v>100.1</v>
+        <v>101.3</v>
       </c>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
@@ -1581,7 +1581,7 @@
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2006年11月</t>
+          <t>2006-02</t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
@@ -1590,7 +1590,7 @@
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="n">
-        <v>100.3</v>
+        <v>100.5</v>
       </c>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
@@ -1599,41 +1599,25 @@
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2006年12月</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>100</v>
-      </c>
-      <c r="C64" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="D64" t="n">
-        <v>99.7</v>
-      </c>
-      <c r="E64" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="F64" t="n">
-        <v>100.6</v>
-      </c>
+          <t>2006-03</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
       <c r="G64" t="n">
-        <v>101.4</v>
-      </c>
-      <c r="H64" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="I64" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="J64" t="n">
-        <v>103.8</v>
-      </c>
+        <v>99.02886357</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2006年1月</t>
+          <t>2006-04</t>
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
@@ -1642,7 +1626,7 @@
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="n">
-        <v>101.3</v>
+        <v>100.06715405</v>
       </c>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
@@ -1651,7 +1635,7 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2006年2月</t>
+          <t>2006-05</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
@@ -1660,7 +1644,7 @@
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="n">
-        <v>100.5</v>
+        <v>99.8073746</v>
       </c>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
@@ -1669,7 +1653,7 @@
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2006年3月</t>
+          <t>2006-06</t>
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
@@ -1678,7 +1662,7 @@
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="n">
-        <v>99.02886357</v>
+        <v>101.51075172</v>
       </c>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
@@ -1687,7 +1671,7 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2006年4月</t>
+          <t>2006-07</t>
         </is>
       </c>
       <c r="B68" t="inlineStr"/>
@@ -1696,7 +1680,7 @@
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="n">
-        <v>100.06715405</v>
+        <v>101.0329</v>
       </c>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
@@ -1705,7 +1689,7 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2006年5月</t>
+          <t>2006-08</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
@@ -1714,7 +1698,7 @@
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="n">
-        <v>99.8073746</v>
+        <v>100.40459457</v>
       </c>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
@@ -1723,7 +1707,7 @@
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2006年6月</t>
+          <t>2006-09</t>
         </is>
       </c>
       <c r="B70" t="inlineStr"/>
@@ -1732,7 +1716,7 @@
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="n">
-        <v>101.51075172</v>
+        <v>100.53435524</v>
       </c>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
@@ -1741,7 +1725,7 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2006年7月</t>
+          <t>2006-10</t>
         </is>
       </c>
       <c r="B71" t="inlineStr"/>
@@ -1750,7 +1734,7 @@
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="n">
-        <v>101.0329</v>
+        <v>100.1</v>
       </c>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
@@ -1759,7 +1743,7 @@
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2006年8月</t>
+          <t>2006-11</t>
         </is>
       </c>
       <c r="B72" t="inlineStr"/>
@@ -1768,7 +1752,7 @@
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="n">
-        <v>100.40459457</v>
+        <v>100.3</v>
       </c>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
@@ -1777,947 +1761,947 @@
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2006年9月</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr"/>
-      <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr"/>
+          <t>2006-12</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>100</v>
+      </c>
+      <c r="C73" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="D73" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="E73" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="F73" t="n">
+        <v>100.6</v>
+      </c>
       <c r="G73" t="n">
-        <v>100.53435524</v>
-      </c>
-      <c r="H73" t="inlineStr"/>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
+        <v>101.4</v>
+      </c>
+      <c r="H73" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="I73" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="J73" t="n">
+        <v>103.8</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>2007年10月</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr"/>
-      <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr"/>
+          <t>2007-01</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="C74" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="D74" t="n">
+        <v>100</v>
+      </c>
+      <c r="E74" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="F74" t="n">
+        <v>100</v>
+      </c>
       <c r="G74" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="H74" t="inlineStr"/>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
+        <v>100.7</v>
+      </c>
+      <c r="H74" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="I74" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J74" t="n">
+        <v>102</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>2007年11月</t>
+          <t>2007-02</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>100.3</v>
+        <v>100.4</v>
       </c>
       <c r="C75" t="n">
         <v>100.3</v>
       </c>
       <c r="D75" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E75" t="n">
         <v>100.3</v>
       </c>
       <c r="F75" t="n">
-        <v>101.6</v>
+        <v>99.8</v>
       </c>
       <c r="G75" t="n">
-        <v>100.7</v>
+        <v>101</v>
       </c>
       <c r="H75" t="n">
-        <v>100.3</v>
+        <v>100.2</v>
       </c>
       <c r="I75" t="n">
-        <v>100.8</v>
+        <v>98.7</v>
       </c>
       <c r="J75" t="n">
-        <v>101.4</v>
+        <v>102.7</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>2007年12月</t>
+          <t>2007-03</t>
         </is>
       </c>
       <c r="B76" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="C76" t="n">
         <v>100.1</v>
       </c>
-      <c r="C76" t="n">
-        <v>100.2</v>
-      </c>
       <c r="D76" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="E76" t="n">
+        <v>100</v>
+      </c>
+      <c r="F76" t="n">
+        <v>100</v>
+      </c>
+      <c r="G76" t="n">
         <v>99.7</v>
       </c>
-      <c r="E76" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="F76" t="n">
-        <v>100.5</v>
-      </c>
-      <c r="G76" t="n">
-        <v>101</v>
-      </c>
       <c r="H76" t="n">
-        <v>100.4</v>
+        <v>100</v>
       </c>
       <c r="I76" t="n">
-        <v>100</v>
+        <v>99.5</v>
       </c>
       <c r="J76" t="n">
-        <v>102.5</v>
+        <v>99.59999999999999</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>2007年1月</t>
+          <t>2007-04</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="C77" t="n">
         <v>100.3</v>
       </c>
       <c r="D77" t="n">
-        <v>100</v>
+        <v>100.5</v>
       </c>
       <c r="E77" t="n">
         <v>100.2</v>
       </c>
       <c r="F77" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="G77" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="H77" t="n">
         <v>100</v>
       </c>
-      <c r="G77" t="n">
-        <v>100.7</v>
-      </c>
-      <c r="H77" t="n">
-        <v>100.2</v>
-      </c>
       <c r="I77" t="n">
-        <v>99.59999999999999</v>
+        <v>100.4</v>
       </c>
       <c r="J77" t="n">
-        <v>102</v>
+        <v>99.40000000000001</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>2007年2月</t>
+          <t>2007-05</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>100.4</v>
+        <v>99.80231448000001</v>
       </c>
       <c r="C78" t="n">
-        <v>100.3</v>
+        <v>100.45624221</v>
       </c>
       <c r="D78" t="n">
-        <v>101</v>
+        <v>100.1274296</v>
       </c>
       <c r="E78" t="n">
-        <v>100.3</v>
+        <v>100.13803428</v>
       </c>
       <c r="F78" t="n">
-        <v>99.8</v>
+        <v>100.22172931</v>
       </c>
       <c r="G78" t="n">
-        <v>101</v>
+        <v>100.29059686</v>
       </c>
       <c r="H78" t="n">
-        <v>100.2</v>
+        <v>100.04972314</v>
       </c>
       <c r="I78" t="n">
-        <v>98.7</v>
+        <v>100.18118141</v>
       </c>
       <c r="J78" t="n">
-        <v>102.7</v>
+        <v>100.566593</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>2007年3月</t>
+          <t>2007-06</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>99.59999999999999</v>
+        <v>99.7</v>
       </c>
       <c r="C79" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="D79" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="E79" t="n">
         <v>100.1</v>
       </c>
-      <c r="D79" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="E79" t="n">
-        <v>100</v>
-      </c>
       <c r="F79" t="n">
-        <v>100</v>
+        <v>100.5</v>
       </c>
       <c r="G79" t="n">
-        <v>99.7</v>
+        <v>100.4</v>
       </c>
       <c r="H79" t="n">
         <v>100</v>
       </c>
       <c r="I79" t="n">
-        <v>99.5</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="J79" t="n">
-        <v>99.59999999999999</v>
+        <v>101.3</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>2007年4月</t>
+          <t>2007-08</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>99.7</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C80" t="n">
-        <v>100.3</v>
+        <v>100.2</v>
       </c>
       <c r="D80" t="n">
-        <v>100.5</v>
+        <v>100</v>
       </c>
       <c r="E80" t="n">
         <v>100.2</v>
       </c>
       <c r="F80" t="n">
-        <v>100.4</v>
+        <v>100.6</v>
       </c>
       <c r="G80" t="n">
-        <v>99.90000000000001</v>
+        <v>101.2</v>
       </c>
       <c r="H80" t="n">
-        <v>100</v>
+        <v>100.1</v>
       </c>
       <c r="I80" t="n">
-        <v>100.4</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="J80" t="n">
-        <v>99.40000000000001</v>
+        <v>103.3</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>2007年5月</t>
+          <t>2007-09</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>99.80231448000001</v>
+        <v>99.8</v>
       </c>
       <c r="C81" t="n">
-        <v>100.45624221</v>
+        <v>100.2</v>
       </c>
       <c r="D81" t="n">
-        <v>100.1274296</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E81" t="n">
-        <v>100.13803428</v>
+        <v>100.2</v>
       </c>
       <c r="F81" t="n">
-        <v>100.22172931</v>
+        <v>100.8</v>
       </c>
       <c r="G81" t="n">
-        <v>100.29059686</v>
+        <v>100.3</v>
       </c>
       <c r="H81" t="n">
-        <v>100.04972314</v>
+        <v>100.1</v>
       </c>
       <c r="I81" t="n">
-        <v>100.18118141</v>
+        <v>100.6</v>
       </c>
       <c r="J81" t="n">
-        <v>100.566593</v>
+        <v>100.3</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>2007年6月</t>
-        </is>
-      </c>
-      <c r="B82" t="n">
-        <v>99.7</v>
-      </c>
-      <c r="C82" t="n">
+          <t>2007-10</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="n">
         <v>100.3</v>
       </c>
-      <c r="D82" t="n">
-        <v>99.3</v>
-      </c>
-      <c r="E82" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="F82" t="n">
-        <v>100.5</v>
-      </c>
-      <c r="G82" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="H82" t="n">
-        <v>100</v>
-      </c>
-      <c r="I82" t="n">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="J82" t="n">
-        <v>101.3</v>
-      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>2007年8月</t>
+          <t>2007-11</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>99.90000000000001</v>
+        <v>100.3</v>
       </c>
       <c r="C83" t="n">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="D83" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E83" t="n">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="F83" t="n">
-        <v>100.6</v>
+        <v>101.6</v>
       </c>
       <c r="G83" t="n">
-        <v>101.2</v>
+        <v>100.7</v>
       </c>
       <c r="H83" t="n">
-        <v>100.1</v>
+        <v>100.3</v>
       </c>
       <c r="I83" t="n">
-        <v>99.09999999999999</v>
+        <v>100.8</v>
       </c>
       <c r="J83" t="n">
-        <v>103.3</v>
+        <v>101.4</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>2007年9月</t>
+          <t>2007-12</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>99.8</v>
+        <v>100.1</v>
       </c>
       <c r="C84" t="n">
         <v>100.2</v>
       </c>
       <c r="D84" t="n">
-        <v>99.90000000000001</v>
+        <v>99.7</v>
       </c>
       <c r="E84" t="n">
         <v>100.2</v>
       </c>
       <c r="F84" t="n">
-        <v>100.8</v>
+        <v>100.5</v>
       </c>
       <c r="G84" t="n">
-        <v>100.3</v>
+        <v>101</v>
       </c>
       <c r="H84" t="n">
-        <v>100.1</v>
+        <v>100.4</v>
       </c>
       <c r="I84" t="n">
-        <v>100.6</v>
+        <v>100</v>
       </c>
       <c r="J84" t="n">
-        <v>100.3</v>
+        <v>102.5</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>2008年10月</t>
+          <t>2008-01</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>99.8</v>
+        <v>100.1</v>
       </c>
       <c r="C85" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="D85" t="n">
         <v>100.1</v>
       </c>
-      <c r="D85" t="n">
+      <c r="E85" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="F85" t="n">
         <v>100.3</v>
       </c>
-      <c r="E85" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="F85" t="n">
-        <v>99.2</v>
-      </c>
       <c r="G85" t="n">
-        <v>99.7</v>
+        <v>101.2</v>
       </c>
       <c r="H85" t="n">
-        <v>100.1</v>
+        <v>100.6</v>
       </c>
       <c r="I85" t="n">
-        <v>100.6</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="J85" t="n">
-        <v>99.09999999999999</v>
+        <v>103.3</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>2008年11月</t>
+          <t>2008-02</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>99.59999999999999</v>
+        <v>100.1</v>
       </c>
       <c r="C86" t="n">
-        <v>99.90000000000001</v>
+        <v>100.3</v>
       </c>
       <c r="D86" t="n">
-        <v>99.09999999999999</v>
+        <v>100.4</v>
       </c>
       <c r="E86" t="n">
-        <v>100</v>
+        <v>100.3</v>
       </c>
       <c r="F86" t="n">
-        <v>98.2</v>
+        <v>100.3</v>
       </c>
       <c r="G86" t="n">
-        <v>99.2</v>
+        <v>102.6</v>
       </c>
       <c r="H86" t="n">
-        <v>100.1</v>
+        <v>100.5</v>
       </c>
       <c r="I86" t="n">
-        <v>100.5</v>
+        <v>99.3</v>
       </c>
       <c r="J86" t="n">
-        <v>99</v>
+        <v>107.1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>2008年12月</t>
+          <t>2008-03</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>99.35013858000001</v>
+        <v>99.2</v>
       </c>
       <c r="C87" t="n">
-        <v>99.95956907999999</v>
+        <v>100.4</v>
       </c>
       <c r="D87" t="n">
-        <v>99.30560015</v>
+        <v>99.2</v>
       </c>
       <c r="E87" t="n">
-        <v>99.93458244</v>
+        <v>100.3</v>
       </c>
       <c r="F87" t="n">
-        <v>97.99166298</v>
+        <v>100.3</v>
       </c>
       <c r="G87" t="n">
-        <v>99.75610335</v>
+        <v>99.3</v>
       </c>
       <c r="H87" t="n">
-        <v>100.04927412</v>
+        <v>100.2</v>
       </c>
       <c r="I87" t="n">
-        <v>99.43120243</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="J87" t="n">
-        <v>100.77093839</v>
+        <v>98.2</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>2008年1月</t>
+          <t>2008-04</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>100.1</v>
+        <v>99.70090817000001</v>
       </c>
       <c r="C88" t="n">
-        <v>100.2</v>
+        <v>100.17526543</v>
       </c>
       <c r="D88" t="n">
-        <v>100.1</v>
+        <v>100.52151002</v>
       </c>
       <c r="E88" t="n">
-        <v>100.4</v>
+        <v>100.35611014</v>
       </c>
       <c r="F88" t="n">
-        <v>100.3</v>
+        <v>100.28925209</v>
       </c>
       <c r="G88" t="n">
-        <v>101.2</v>
+        <v>100.10375286</v>
       </c>
       <c r="H88" t="n">
-        <v>100.6</v>
+        <v>100.18690962</v>
       </c>
       <c r="I88" t="n">
-        <v>99.40000000000001</v>
+        <v>100.20711907</v>
       </c>
       <c r="J88" t="n">
-        <v>103.3</v>
+        <v>99.90993810000001</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>2008年2月</t>
+          <t>2008-05</t>
         </is>
       </c>
       <c r="B89" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="C89" t="n">
         <v>100.1</v>
       </c>
-      <c r="C89" t="n">
-        <v>100.3</v>
-      </c>
       <c r="D89" t="n">
-        <v>100.4</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="E89" t="n">
-        <v>100.3</v>
+        <v>100.2</v>
       </c>
       <c r="F89" t="n">
-        <v>100.3</v>
+        <v>100.5</v>
       </c>
       <c r="G89" t="n">
-        <v>102.6</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="H89" t="n">
-        <v>100.5</v>
+        <v>100.2</v>
       </c>
       <c r="I89" t="n">
-        <v>99.3</v>
+        <v>100</v>
       </c>
       <c r="J89" t="n">
-        <v>107.1</v>
+        <v>98.7</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>2008年3月</t>
+          <t>2008-06</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>99.2</v>
+        <v>100.2</v>
       </c>
       <c r="C90" t="n">
-        <v>100.4</v>
+        <v>100.1</v>
       </c>
       <c r="D90" t="n">
-        <v>99.2</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="E90" t="n">
         <v>100.3</v>
       </c>
       <c r="F90" t="n">
+        <v>101</v>
+      </c>
+      <c r="G90" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="H90" t="n">
         <v>100.3</v>
       </c>
-      <c r="G90" t="n">
-        <v>99.3</v>
-      </c>
-      <c r="H90" t="n">
-        <v>100.2</v>
-      </c>
       <c r="I90" t="n">
-        <v>99.90000000000001</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="J90" t="n">
-        <v>98.2</v>
+        <v>99.2</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>2008年4月</t>
+          <t>2008-07</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>99.70090817000001</v>
+        <v>100.8</v>
       </c>
       <c r="C91" t="n">
-        <v>100.17526543</v>
+        <v>100.2</v>
       </c>
       <c r="D91" t="n">
-        <v>100.52151002</v>
+        <v>100.6</v>
       </c>
       <c r="E91" t="n">
-        <v>100.35611014</v>
+        <v>100.3</v>
       </c>
       <c r="F91" t="n">
-        <v>100.28925209</v>
+        <v>100.4</v>
       </c>
       <c r="G91" t="n">
-        <v>100.10375286</v>
+        <v>100.1</v>
       </c>
       <c r="H91" t="n">
-        <v>100.18690962</v>
+        <v>100.2</v>
       </c>
       <c r="I91" t="n">
-        <v>100.20711907</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="J91" t="n">
-        <v>99.90993810000001</v>
+        <v>99.90000000000001</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>2008年5月</t>
-        </is>
-      </c>
-      <c r="B92" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="C92" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="D92" t="n">
+          <t>2008-08</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr"/>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
         <v>99.59999999999999</v>
-      </c>
-      <c r="E92" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="F92" t="n">
-        <v>100.5</v>
-      </c>
-      <c r="G92" t="n">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="H92" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="I92" t="n">
-        <v>100</v>
-      </c>
-      <c r="J92" t="n">
-        <v>98.7</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>2008年6月</t>
+          <t>2008-09</t>
         </is>
       </c>
       <c r="B93" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="C93" t="n">
+        <v>100</v>
+      </c>
+      <c r="D93" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="E93" t="n">
         <v>100.2</v>
       </c>
-      <c r="C93" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="D93" t="n">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="E93" t="n">
-        <v>100.3</v>
-      </c>
       <c r="F93" t="n">
-        <v>101</v>
+        <v>100.2</v>
       </c>
       <c r="G93" t="n">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="H93" t="n">
         <v>100.3</v>
       </c>
       <c r="I93" t="n">
-        <v>99.59999999999999</v>
+        <v>100.5</v>
       </c>
       <c r="J93" t="n">
-        <v>99.2</v>
+        <v>99.7</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>2008年7月</t>
+          <t>2008-10</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>100.8</v>
+        <v>99.8</v>
       </c>
       <c r="C94" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="D94" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="E94" t="n">
         <v>100.2</v>
       </c>
-      <c r="D94" t="n">
+      <c r="F94" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="G94" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="H94" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="I94" t="n">
         <v>100.6</v>
       </c>
-      <c r="E94" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="F94" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="G94" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="H94" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="I94" t="n">
+      <c r="J94" t="n">
         <v>99.09999999999999</v>
-      </c>
-      <c r="J94" t="n">
-        <v>99.90000000000001</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>2008年8月</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr"/>
-      <c r="C95" t="inlineStr"/>
-      <c r="D95" t="inlineStr"/>
-      <c r="E95" t="inlineStr"/>
-      <c r="F95" t="inlineStr"/>
+          <t>2008-11</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="C95" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="D95" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="E95" t="n">
+        <v>100</v>
+      </c>
+      <c r="F95" t="n">
+        <v>98.2</v>
+      </c>
       <c r="G95" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="H95" t="inlineStr"/>
-      <c r="I95" t="inlineStr"/>
+        <v>99.2</v>
+      </c>
+      <c r="H95" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>100.5</v>
+      </c>
       <c r="J95" t="n">
-        <v>99.59999999999999</v>
+        <v>99</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>2008年9月</t>
+          <t>2008-12</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>99.8</v>
+        <v>99.35013858000001</v>
       </c>
       <c r="C96" t="n">
-        <v>100</v>
+        <v>99.95956907999999</v>
       </c>
       <c r="D96" t="n">
-        <v>100.3</v>
+        <v>99.30560015</v>
       </c>
       <c r="E96" t="n">
-        <v>100.2</v>
+        <v>99.93458244</v>
       </c>
       <c r="F96" t="n">
-        <v>100.2</v>
+        <v>97.99166298</v>
       </c>
       <c r="G96" t="n">
-        <v>100</v>
+        <v>99.75610335</v>
       </c>
       <c r="H96" t="n">
-        <v>100.3</v>
+        <v>100.04927412</v>
       </c>
       <c r="I96" t="n">
-        <v>100.5</v>
+        <v>99.43120243</v>
       </c>
       <c r="J96" t="n">
-        <v>99.7</v>
+        <v>100.77093839</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>2009年10月</t>
+          <t>2009-01</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>99.80211695</v>
+        <v>98.93200876</v>
       </c>
       <c r="C97" t="n">
-        <v>100.20540682</v>
+        <v>100.16511044</v>
       </c>
       <c r="D97" t="n">
-        <v>100.45980491</v>
+        <v>101.07877498</v>
       </c>
       <c r="E97" t="n">
-        <v>99.91788998</v>
+        <v>100.11896907</v>
       </c>
       <c r="F97" t="n">
-        <v>100.40202974</v>
+        <v>99.3846944</v>
       </c>
       <c r="G97" t="n">
-        <v>99.91826997</v>
+        <v>100.94445981</v>
       </c>
       <c r="H97" t="n">
-        <v>100.06615654</v>
+        <v>100.06396891</v>
       </c>
       <c r="I97" t="n">
-        <v>100.79120211</v>
+        <v>98.88097654000001</v>
       </c>
       <c r="J97" t="n">
-        <v>99.20190266</v>
+        <v>103.34958102</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>2009年11月</t>
+          <t>2009-02</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>100.13951005</v>
+        <v>99.7</v>
       </c>
       <c r="C98" t="n">
-        <v>100.32742425</v>
+        <v>100.2</v>
       </c>
       <c r="D98" t="n">
-        <v>99.24331644999999</v>
+        <v>99</v>
       </c>
       <c r="E98" t="n">
-        <v>100.14104896</v>
+        <v>99.8</v>
       </c>
       <c r="F98" t="n">
-        <v>100.82754196</v>
+        <v>99.7</v>
       </c>
       <c r="G98" t="n">
-        <v>100.32962648</v>
+        <v>100</v>
       </c>
       <c r="H98" t="n">
-        <v>100.10799772</v>
+        <v>100</v>
       </c>
       <c r="I98" t="n">
-        <v>100.91493843</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="J98" t="n">
-        <v>100.50045291</v>
+        <v>100.8</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>2009年12月</t>
-        </is>
-      </c>
-      <c r="B99" t="n">
-        <v>100.07909841</v>
-      </c>
-      <c r="C99" t="n">
-        <v>100.49442358</v>
-      </c>
-      <c r="D99" t="n">
-        <v>99.63027812</v>
-      </c>
-      <c r="E99" t="n">
-        <v>99.98093329</v>
-      </c>
-      <c r="F99" t="n">
-        <v>100.65051035</v>
-      </c>
+          <t>2009-03</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr"/>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr"/>
       <c r="G99" t="n">
-        <v>101.04331582</v>
-      </c>
-      <c r="H99" t="n">
-        <v>100.10865286</v>
-      </c>
-      <c r="I99" t="n">
-        <v>99.83507123</v>
-      </c>
-      <c r="J99" t="n">
-        <v>102.87310149</v>
-      </c>
+        <v>99.7</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>2009年1月</t>
+          <t>2009-04</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>98.93200876</v>
+        <v>99.98730878000001</v>
       </c>
       <c r="C100" t="n">
-        <v>100.16511044</v>
+        <v>100.09437057</v>
       </c>
       <c r="D100" t="n">
-        <v>101.07877498</v>
+        <v>100.29190632</v>
       </c>
       <c r="E100" t="n">
-        <v>100.11896907</v>
+        <v>99.76816982</v>
       </c>
       <c r="F100" t="n">
-        <v>99.3846944</v>
+        <v>99.7821835</v>
       </c>
       <c r="G100" t="n">
-        <v>100.94445981</v>
+        <v>99.76808930999999</v>
       </c>
       <c r="H100" t="n">
-        <v>100.06396891</v>
+        <v>100.01580795</v>
       </c>
       <c r="I100" t="n">
-        <v>98.88097654000001</v>
+        <v>100.24813219</v>
       </c>
       <c r="J100" t="n">
-        <v>103.34958102</v>
+        <v>99.23907712</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>2009年2月</t>
+          <t>2009-05</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>99.7</v>
+        <v>99.75962457999999</v>
       </c>
       <c r="C101" t="n">
-        <v>100.2</v>
+        <v>100.07754798</v>
       </c>
       <c r="D101" t="n">
-        <v>99</v>
+        <v>99.76452714</v>
       </c>
       <c r="E101" t="n">
-        <v>99.8</v>
+        <v>99.84242985</v>
       </c>
       <c r="F101" t="n">
-        <v>99.7</v>
+        <v>99.71096098</v>
       </c>
       <c r="G101" t="n">
-        <v>100</v>
+        <v>99.71481319</v>
       </c>
       <c r="H101" t="n">
-        <v>100</v>
+        <v>100.02646536</v>
       </c>
       <c r="I101" t="n">
-        <v>99.40000000000001</v>
+        <v>100.08722465</v>
       </c>
       <c r="J101" t="n">
-        <v>100.8</v>
+        <v>99.41741605999999</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>2009年3月</t>
+          <t>2009-06</t>
         </is>
       </c>
       <c r="B102" t="inlineStr"/>
@@ -2726,7 +2710,7 @@
       <c r="E102" t="inlineStr"/>
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="n">
-        <v>99.7</v>
+        <v>99.5</v>
       </c>
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
@@ -2735,2637 +2719,2653 @@
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>2009年4月</t>
+          <t>2009-07</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>99.98730878000001</v>
+        <v>100.46329451</v>
       </c>
       <c r="C103" t="n">
-        <v>100.09437057</v>
+        <v>100.0266872</v>
       </c>
       <c r="D103" t="n">
-        <v>100.29190632</v>
+        <v>100.64400833</v>
       </c>
       <c r="E103" t="n">
-        <v>99.76816982</v>
+        <v>99.77244338</v>
       </c>
       <c r="F103" t="n">
-        <v>99.7821835</v>
+        <v>100.29613418</v>
       </c>
       <c r="G103" t="n">
-        <v>99.76808930999999</v>
+        <v>100.01384403</v>
       </c>
       <c r="H103" t="n">
-        <v>100.01580795</v>
+        <v>100.18098533</v>
       </c>
       <c r="I103" t="n">
-        <v>100.24813219</v>
+        <v>99.05805805</v>
       </c>
       <c r="J103" t="n">
-        <v>99.23907712</v>
+        <v>99.78159787</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>2009年5月</t>
+          <t>2009-08</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>99.75962457999999</v>
+        <v>99.74314833</v>
       </c>
       <c r="C104" t="n">
-        <v>100.07754798</v>
+        <v>100.14065975</v>
       </c>
       <c r="D104" t="n">
-        <v>99.76452714</v>
+        <v>100.04693322</v>
       </c>
       <c r="E104" t="n">
-        <v>99.84242985</v>
+        <v>99.93469739</v>
       </c>
       <c r="F104" t="n">
-        <v>99.71096098</v>
+        <v>100.514477</v>
       </c>
       <c r="G104" t="n">
-        <v>99.71481319</v>
+        <v>100.47836871</v>
       </c>
       <c r="H104" t="n">
-        <v>100.02646536</v>
+        <v>100.33501957</v>
       </c>
       <c r="I104" t="n">
-        <v>100.08722465</v>
+        <v>99.67080609</v>
       </c>
       <c r="J104" t="n">
-        <v>99.41741605999999</v>
+        <v>101.32095032</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>2009年6月</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr"/>
-      <c r="C105" t="inlineStr"/>
-      <c r="D105" t="inlineStr"/>
-      <c r="E105" t="inlineStr"/>
-      <c r="F105" t="inlineStr"/>
+          <t>2009-09</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>100.07528731</v>
+      </c>
+      <c r="C105" t="n">
+        <v>100.17260121</v>
+      </c>
+      <c r="D105" t="n">
+        <v>100.20317931</v>
+      </c>
+      <c r="E105" t="n">
+        <v>100.00490752</v>
+      </c>
+      <c r="F105" t="n">
+        <v>100.5497692</v>
+      </c>
       <c r="G105" t="n">
-        <v>99.5</v>
-      </c>
-      <c r="H105" t="inlineStr"/>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
+        <v>100.44919392</v>
+      </c>
+      <c r="H105" t="n">
+        <v>100.27804367</v>
+      </c>
+      <c r="I105" t="n">
+        <v>100.90774023</v>
+      </c>
+      <c r="J105" t="n">
+        <v>100.68401604</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>2009年7月</t>
+          <t>2009-10</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>100.46329451</v>
+        <v>99.80211695</v>
       </c>
       <c r="C106" t="n">
-        <v>100.0266872</v>
+        <v>100.20540682</v>
       </c>
       <c r="D106" t="n">
-        <v>100.64400833</v>
+        <v>100.45980491</v>
       </c>
       <c r="E106" t="n">
-        <v>99.77244338</v>
+        <v>99.91788998</v>
       </c>
       <c r="F106" t="n">
-        <v>100.29613418</v>
+        <v>100.40202974</v>
       </c>
       <c r="G106" t="n">
-        <v>100.01384403</v>
+        <v>99.91826997</v>
       </c>
       <c r="H106" t="n">
-        <v>100.18098533</v>
+        <v>100.06615654</v>
       </c>
       <c r="I106" t="n">
-        <v>99.05805805</v>
+        <v>100.79120211</v>
       </c>
       <c r="J106" t="n">
-        <v>99.78159787</v>
+        <v>99.20190266</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>2009年8月</t>
+          <t>2009-11</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>99.74314833</v>
+        <v>100.13951005</v>
       </c>
       <c r="C107" t="n">
-        <v>100.14065975</v>
+        <v>100.32742425</v>
       </c>
       <c r="D107" t="n">
-        <v>100.04693322</v>
+        <v>99.24331644999999</v>
       </c>
       <c r="E107" t="n">
-        <v>99.93469739</v>
+        <v>100.14104896</v>
       </c>
       <c r="F107" t="n">
-        <v>100.514477</v>
+        <v>100.82754196</v>
       </c>
       <c r="G107" t="n">
-        <v>100.47836871</v>
+        <v>100.32962648</v>
       </c>
       <c r="H107" t="n">
-        <v>100.33501957</v>
+        <v>100.10799772</v>
       </c>
       <c r="I107" t="n">
-        <v>99.67080609</v>
+        <v>100.91493843</v>
       </c>
       <c r="J107" t="n">
-        <v>101.32095032</v>
+        <v>100.50045291</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>2009年9月</t>
+          <t>2009-12</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>100.07528731</v>
+        <v>100.07909841</v>
       </c>
       <c r="C108" t="n">
-        <v>100.17260121</v>
+        <v>100.49442358</v>
       </c>
       <c r="D108" t="n">
-        <v>100.20317931</v>
+        <v>99.63027812</v>
       </c>
       <c r="E108" t="n">
-        <v>100.00490752</v>
+        <v>99.98093329</v>
       </c>
       <c r="F108" t="n">
-        <v>100.5497692</v>
+        <v>100.65051035</v>
       </c>
       <c r="G108" t="n">
-        <v>100.44919392</v>
+        <v>101.04331582</v>
       </c>
       <c r="H108" t="n">
-        <v>100.27804367</v>
+        <v>100.10865286</v>
       </c>
       <c r="I108" t="n">
-        <v>100.90774023</v>
+        <v>99.83507123</v>
       </c>
       <c r="J108" t="n">
-        <v>100.68401604</v>
+        <v>102.87310149</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>2010年10月</t>
+          <t>2010-01</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>100.00301491</v>
+        <v>99.87307507</v>
       </c>
       <c r="C109" t="n">
-        <v>100.52104793</v>
+        <v>100.31678872</v>
       </c>
       <c r="D109" t="n">
-        <v>100.13974108</v>
+        <v>100.09711792</v>
       </c>
       <c r="E109" t="n">
-        <v>100.02288533</v>
+        <v>100.08094763</v>
       </c>
       <c r="F109" t="n">
-        <v>100.90607931</v>
+        <v>100.42068439</v>
       </c>
       <c r="G109" t="n">
-        <v>100.651191</v>
+        <v>100.62187815</v>
       </c>
       <c r="H109" t="n">
-        <v>100.19277001</v>
+        <v>100.2387464</v>
       </c>
       <c r="I109" t="n">
-        <v>100.96062537</v>
+        <v>99.27498623</v>
       </c>
       <c r="J109" t="n">
-        <v>101.0502515</v>
+        <v>101.78707476</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>2010年11月</t>
+          <t>2010-02</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>99.96750600999999</v>
+        <v>100.39670141</v>
       </c>
       <c r="C110" t="n">
-        <v>100.65897013</v>
+        <v>100.30376109</v>
       </c>
       <c r="D110" t="n">
-        <v>99.00837180000001</v>
+        <v>101.02172073</v>
       </c>
       <c r="E110" t="n">
-        <v>100.41299748</v>
+        <v>100.1331908</v>
       </c>
       <c r="F110" t="n">
-        <v>101.78028335</v>
+        <v>100.13832454</v>
       </c>
       <c r="G110" t="n">
-        <v>101.0541858</v>
+        <v>101.170805</v>
       </c>
       <c r="H110" t="n">
-        <v>100.23584047</v>
+        <v>100.08484954</v>
       </c>
       <c r="I110" t="n">
-        <v>101.58759582</v>
+        <v>98.50349133</v>
       </c>
       <c r="J110" t="n">
-        <v>101.99144355</v>
+        <v>103.2557848</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>2010年12月</t>
+          <t>2010-03</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>100.08471462</v>
+        <v>99.56445843</v>
       </c>
       <c r="C111" t="n">
-        <v>100.4218796</v>
+        <v>100.16846147</v>
       </c>
       <c r="D111" t="n">
-        <v>99.70727393</v>
+        <v>99.12577786999999</v>
       </c>
       <c r="E111" t="n">
-        <v>100.39190378</v>
+        <v>99.79820461</v>
       </c>
       <c r="F111" t="n">
-        <v>100.81821304</v>
+        <v>99.940248</v>
       </c>
       <c r="G111" t="n">
-        <v>100.53066196</v>
+        <v>99.33818551</v>
       </c>
       <c r="H111" t="n">
-        <v>100.2895317</v>
+        <v>100.15145347</v>
       </c>
       <c r="I111" t="n">
-        <v>100.54915758</v>
+        <v>100.06570727</v>
       </c>
       <c r="J111" t="n">
-        <v>100.8997213</v>
+        <v>98.48091644</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>2010年1月</t>
+          <t>2010-04</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>99.87307507</v>
+        <v>99.94612871</v>
       </c>
       <c r="C112" t="n">
-        <v>100.31678872</v>
+        <v>100.34621067</v>
       </c>
       <c r="D112" t="n">
-        <v>100.09711792</v>
+        <v>100.46099444</v>
       </c>
       <c r="E112" t="n">
-        <v>100.08094763</v>
+        <v>100.0029547</v>
       </c>
       <c r="F112" t="n">
-        <v>100.42068439</v>
+        <v>100.92921854</v>
       </c>
       <c r="G112" t="n">
-        <v>100.62187815</v>
+        <v>100.19978897</v>
       </c>
       <c r="H112" t="n">
-        <v>100.2387464</v>
+        <v>99.99325978</v>
       </c>
       <c r="I112" t="n">
-        <v>99.27498623</v>
+        <v>100.08601328</v>
       </c>
       <c r="J112" t="n">
-        <v>101.78707476</v>
+        <v>99.90522863</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>2010年2月</t>
+          <t>2010-05</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>100.39670141</v>
+        <v>99.91832719</v>
       </c>
       <c r="C113" t="n">
-        <v>100.30376109</v>
+        <v>100.45191166</v>
       </c>
       <c r="D113" t="n">
-        <v>101.02172073</v>
+        <v>99.95775839</v>
       </c>
       <c r="E113" t="n">
-        <v>100.1331908</v>
+        <v>100.01069917</v>
       </c>
       <c r="F113" t="n">
-        <v>100.13832454</v>
+        <v>100.22894794</v>
       </c>
       <c r="G113" t="n">
-        <v>101.170805</v>
+        <v>99.92595031</v>
       </c>
       <c r="H113" t="n">
-        <v>100.08484954</v>
+        <v>100.08207685</v>
       </c>
       <c r="I113" t="n">
-        <v>98.50349133</v>
+        <v>100.16534039</v>
       </c>
       <c r="J113" t="n">
-        <v>103.2557848</v>
+        <v>99.53010347999999</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>2010年3月</t>
+          <t>2010-06</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>99.56445843</v>
+        <v>99.74222249</v>
       </c>
       <c r="C114" t="n">
-        <v>100.16846147</v>
+        <v>100.23625281</v>
       </c>
       <c r="D114" t="n">
-        <v>99.12577786999999</v>
+        <v>99.94792601</v>
       </c>
       <c r="E114" t="n">
-        <v>99.79820461</v>
+        <v>100.1882363</v>
       </c>
       <c r="F114" t="n">
-        <v>99.940248</v>
+        <v>100.00714353</v>
       </c>
       <c r="G114" t="n">
-        <v>99.33818551</v>
+        <v>99.43888908</v>
       </c>
       <c r="H114" t="n">
-        <v>100.15145347</v>
+        <v>100.10706781</v>
       </c>
       <c r="I114" t="n">
-        <v>100.06570727</v>
+        <v>99.71282105</v>
       </c>
       <c r="J114" t="n">
-        <v>98.48091644</v>
+        <v>98.3757518</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>2010年4月</t>
+          <t>2010-07</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>99.94612871</v>
+        <v>100.0558073</v>
       </c>
       <c r="C115" t="n">
-        <v>100.34621067</v>
+        <v>100.09932185</v>
       </c>
       <c r="D115" t="n">
-        <v>100.46099444</v>
+        <v>100.83708511</v>
       </c>
       <c r="E115" t="n">
-        <v>100.0029547</v>
+        <v>100.01962868</v>
       </c>
       <c r="F115" t="n">
-        <v>100.92921854</v>
+        <v>100.05458733</v>
       </c>
       <c r="G115" t="n">
-        <v>100.19978897</v>
+        <v>100.35799921</v>
       </c>
       <c r="H115" t="n">
-        <v>99.99325978</v>
+        <v>100.08178038</v>
       </c>
       <c r="I115" t="n">
-        <v>100.08601328</v>
+        <v>99.27110931999999</v>
       </c>
       <c r="J115" t="n">
-        <v>99.90522863</v>
+        <v>100.88819356</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>2010年5月</t>
+          <t>2010-08</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>99.91832719</v>
+        <v>99.85717673000001</v>
       </c>
       <c r="C116" t="n">
-        <v>100.45191166</v>
+        <v>100.11804675</v>
       </c>
       <c r="D116" t="n">
-        <v>99.95775839</v>
+        <v>100.20409055</v>
       </c>
       <c r="E116" t="n">
-        <v>100.01069917</v>
+        <v>100.11947597</v>
       </c>
       <c r="F116" t="n">
-        <v>100.22894794</v>
+        <v>100.19313641</v>
       </c>
       <c r="G116" t="n">
-        <v>99.92595031</v>
+        <v>100.64880375</v>
       </c>
       <c r="H116" t="n">
-        <v>100.08207685</v>
+        <v>100.19055363</v>
       </c>
       <c r="I116" t="n">
-        <v>100.16534039</v>
+        <v>99.30607667</v>
       </c>
       <c r="J116" t="n">
-        <v>99.53010347999999</v>
+        <v>101.95801665</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>2010年6月</t>
+          <t>2010-09</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>99.74222249</v>
+        <v>99.93485652</v>
       </c>
       <c r="C117" t="n">
-        <v>100.23625281</v>
+        <v>100.25426177</v>
       </c>
       <c r="D117" t="n">
-        <v>99.94792601</v>
+        <v>100.21895712</v>
       </c>
       <c r="E117" t="n">
-        <v>100.1882363</v>
+        <v>99.97012264</v>
       </c>
       <c r="F117" t="n">
-        <v>100.00714353</v>
+        <v>100.45989376</v>
       </c>
       <c r="G117" t="n">
-        <v>99.43888908</v>
+        <v>100.57164658</v>
       </c>
       <c r="H117" t="n">
-        <v>100.10706781</v>
+        <v>100.13717872</v>
       </c>
       <c r="I117" t="n">
-        <v>99.71282105</v>
+        <v>100.60810989</v>
       </c>
       <c r="J117" t="n">
-        <v>98.3757518</v>
+        <v>101.1991438</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>2010年7月</t>
+          <t>2010-10</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>100.0558073</v>
+        <v>100.00301491</v>
       </c>
       <c r="C118" t="n">
-        <v>100.09932185</v>
+        <v>100.52104793</v>
       </c>
       <c r="D118" t="n">
-        <v>100.83708511</v>
+        <v>100.13974108</v>
       </c>
       <c r="E118" t="n">
-        <v>100.01962868</v>
+        <v>100.02288533</v>
       </c>
       <c r="F118" t="n">
-        <v>100.05458733</v>
+        <v>100.90607931</v>
       </c>
       <c r="G118" t="n">
-        <v>100.35799921</v>
+        <v>100.651191</v>
       </c>
       <c r="H118" t="n">
-        <v>100.08178038</v>
+        <v>100.19277001</v>
       </c>
       <c r="I118" t="n">
-        <v>99.27110931999999</v>
+        <v>100.96062537</v>
       </c>
       <c r="J118" t="n">
-        <v>100.88819356</v>
+        <v>101.0502515</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>2010年8月</t>
+          <t>2010-11</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>99.85717673000001</v>
+        <v>99.96750600999999</v>
       </c>
       <c r="C119" t="n">
-        <v>100.11804675</v>
+        <v>100.65897013</v>
       </c>
       <c r="D119" t="n">
-        <v>100.20409055</v>
+        <v>99.00837180000001</v>
       </c>
       <c r="E119" t="n">
-        <v>100.11947597</v>
+        <v>100.41299748</v>
       </c>
       <c r="F119" t="n">
-        <v>100.19313641</v>
+        <v>101.78028335</v>
       </c>
       <c r="G119" t="n">
-        <v>100.64880375</v>
+        <v>101.0541858</v>
       </c>
       <c r="H119" t="n">
-        <v>100.19055363</v>
+        <v>100.23584047</v>
       </c>
       <c r="I119" t="n">
-        <v>99.30607667</v>
+        <v>101.58759582</v>
       </c>
       <c r="J119" t="n">
-        <v>101.95801665</v>
+        <v>101.99144355</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>2010年9月</t>
+          <t>2010-12</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>99.93485652</v>
+        <v>100.08471462</v>
       </c>
       <c r="C120" t="n">
-        <v>100.25426177</v>
+        <v>100.4218796</v>
       </c>
       <c r="D120" t="n">
-        <v>100.21895712</v>
+        <v>99.70727393</v>
       </c>
       <c r="E120" t="n">
-        <v>99.97012264</v>
+        <v>100.39190378</v>
       </c>
       <c r="F120" t="n">
-        <v>100.45989376</v>
+        <v>100.81821304</v>
       </c>
       <c r="G120" t="n">
-        <v>100.57164658</v>
+        <v>100.53066196</v>
       </c>
       <c r="H120" t="n">
-        <v>100.13717872</v>
+        <v>100.2895317</v>
       </c>
       <c r="I120" t="n">
-        <v>100.60810989</v>
+        <v>100.54915758</v>
       </c>
       <c r="J120" t="n">
-        <v>101.1991438</v>
+        <v>100.8997213</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>2011年10月</t>
+          <t>2011-01</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>99.72633363</v>
+        <v>100.48981743</v>
       </c>
       <c r="C121" t="n">
-        <v>99.87977567</v>
+        <v>100.26422003</v>
       </c>
       <c r="D121" t="n">
-        <v>100.20955291</v>
+        <v>100.432299</v>
       </c>
       <c r="E121" t="n">
-        <v>100.10426434</v>
+        <v>100.3750736</v>
       </c>
       <c r="F121" t="n">
-        <v>100.08054106</v>
+        <v>100.35359236</v>
       </c>
       <c r="G121" t="n">
-        <v>100.09291703</v>
+        <v>101.04199941</v>
       </c>
       <c r="H121" t="n">
-        <v>100.48187178</v>
+        <v>100.277943</v>
       </c>
       <c r="I121" t="n">
-        <v>101.55495966</v>
+        <v>99.46651409</v>
       </c>
       <c r="J121" t="n">
-        <v>99.82453254000001</v>
+        <v>102.77944001</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>2011年11月</t>
+          <t>2011-02</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>99.79702835000001</v>
+        <v>100.144462</v>
       </c>
       <c r="C122" t="n">
-        <v>100.2421074</v>
+        <v>100.17269578</v>
       </c>
       <c r="D122" t="n">
-        <v>99.24500591</v>
+        <v>100.315001</v>
       </c>
       <c r="E122" t="n">
-        <v>100.28315343</v>
+        <v>100.18059897</v>
       </c>
       <c r="F122" t="n">
-        <v>100.0266531</v>
+        <v>100.29328527</v>
       </c>
       <c r="G122" t="n">
-        <v>99.81110193000001</v>
+        <v>101.23521146</v>
       </c>
       <c r="H122" t="n">
-        <v>100.33562776</v>
+        <v>100.19333754</v>
       </c>
       <c r="I122" t="n">
-        <v>101.44522744</v>
+        <v>99.20153626</v>
       </c>
       <c r="J122" t="n">
-        <v>99.2080763</v>
+        <v>103.7088779</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>2011年12月</t>
+          <t>2011-03</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>99.88721497</v>
+        <v>100</v>
       </c>
       <c r="C123" t="n">
-        <v>99.90276304</v>
+        <v>100.2</v>
       </c>
       <c r="D123" t="n">
-        <v>99.67103175</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="E123" t="n">
-        <v>99.95293823999999</v>
+        <v>100.3</v>
       </c>
       <c r="F123" t="n">
-        <v>99.7613602</v>
+        <v>100.5</v>
       </c>
       <c r="G123" t="n">
-        <v>100.31190717</v>
+        <v>99.8</v>
       </c>
       <c r="H123" t="n">
-        <v>100.34583126</v>
+        <v>100.3</v>
       </c>
       <c r="I123" t="n">
-        <v>100.40666456</v>
+        <v>100.5</v>
       </c>
       <c r="J123" t="n">
-        <v>101.16995652</v>
+        <v>99</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>2011年1月</t>
+          <t>2011-04</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>100.48981743</v>
+        <v>100.4</v>
       </c>
       <c r="C124" t="n">
-        <v>100.26422003</v>
+        <v>100.3</v>
       </c>
       <c r="D124" t="n">
-        <v>100.432299</v>
+        <v>100.4</v>
       </c>
       <c r="E124" t="n">
-        <v>100.3750736</v>
+        <v>100.2</v>
       </c>
       <c r="F124" t="n">
-        <v>100.35359236</v>
+        <v>100.4</v>
       </c>
       <c r="G124" t="n">
-        <v>101.04199941</v>
+        <v>100.1</v>
       </c>
       <c r="H124" t="n">
-        <v>100.277943</v>
+        <v>100.3</v>
       </c>
       <c r="I124" t="n">
-        <v>99.46651409</v>
+        <v>100.6</v>
       </c>
       <c r="J124" t="n">
-        <v>102.77944001</v>
+        <v>99.59999999999999</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>2011年2月</t>
+          <t>2011-05</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>100.144462</v>
+        <v>100.1</v>
       </c>
       <c r="C125" t="n">
-        <v>100.17269578</v>
+        <v>100.4</v>
       </c>
       <c r="D125" t="n">
-        <v>100.315001</v>
+        <v>100</v>
       </c>
       <c r="E125" t="n">
-        <v>100.18059897</v>
+        <v>100.3</v>
       </c>
       <c r="F125" t="n">
-        <v>100.29328527</v>
+        <v>100.2</v>
       </c>
       <c r="G125" t="n">
-        <v>101.23521146</v>
+        <v>100.1</v>
       </c>
       <c r="H125" t="n">
-        <v>100.19333754</v>
+        <v>100.3</v>
       </c>
       <c r="I125" t="n">
-        <v>99.20153626</v>
+        <v>100.5</v>
       </c>
       <c r="J125" t="n">
-        <v>103.7088779</v>
+        <v>99.7</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>2011年3月</t>
+          <t>2011-06</t>
         </is>
       </c>
       <c r="B126" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="C126" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="D126" t="n">
         <v>100</v>
       </c>
-      <c r="C126" t="n">
+      <c r="E126" t="n">
         <v>100.2</v>
       </c>
-      <c r="D126" t="n">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="E126" t="n">
+      <c r="F126" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="G126" t="n">
         <v>100.3</v>
       </c>
-      <c r="F126" t="n">
-        <v>100.5</v>
-      </c>
-      <c r="G126" t="n">
+      <c r="H126" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="I126" t="n">
         <v>99.8</v>
       </c>
-      <c r="H126" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="I126" t="n">
-        <v>100.5</v>
-      </c>
       <c r="J126" t="n">
-        <v>99</v>
+        <v>100.9</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>2011年4月</t>
+          <t>2011-07</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>100.4</v>
+        <v>100.01668078</v>
       </c>
       <c r="C127" t="n">
-        <v>100.3</v>
+        <v>100.29205897</v>
       </c>
       <c r="D127" t="n">
-        <v>100.4</v>
+        <v>100.64254268</v>
       </c>
       <c r="E127" t="n">
-        <v>100.2</v>
+        <v>100.20471137</v>
       </c>
       <c r="F127" t="n">
-        <v>100.4</v>
+        <v>100.08526962</v>
       </c>
       <c r="G127" t="n">
-        <v>100.1</v>
+        <v>100.46325302</v>
       </c>
       <c r="H127" t="n">
-        <v>100.3</v>
+        <v>100.19988516</v>
       </c>
       <c r="I127" t="n">
-        <v>100.6</v>
+        <v>99.44012902999999</v>
       </c>
       <c r="J127" t="n">
-        <v>99.59999999999999</v>
+        <v>101.17450571</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>2011年5月</t>
+          <t>2011-08</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>100.1</v>
+        <v>99.99185983</v>
       </c>
       <c r="C128" t="n">
-        <v>100.4</v>
+        <v>100.560285</v>
       </c>
       <c r="D128" t="n">
-        <v>100</v>
+        <v>100.09969004</v>
       </c>
       <c r="E128" t="n">
-        <v>100.3</v>
+        <v>100.20469723</v>
       </c>
       <c r="F128" t="n">
-        <v>100.2</v>
+        <v>100.2484776</v>
       </c>
       <c r="G128" t="n">
-        <v>100.1</v>
+        <v>100.30812416</v>
       </c>
       <c r="H128" t="n">
-        <v>100.3</v>
+        <v>100.21318535</v>
       </c>
       <c r="I128" t="n">
-        <v>100.5</v>
+        <v>99.92499775</v>
       </c>
       <c r="J128" t="n">
-        <v>99.7</v>
+        <v>100.58409459</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>2011年6月</t>
+          <t>2011-09</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>99.90000000000001</v>
+        <v>99.89424067</v>
       </c>
       <c r="C129" t="n">
-        <v>100.3</v>
+        <v>100.18826898</v>
       </c>
       <c r="D129" t="n">
-        <v>100</v>
+        <v>99.70992507</v>
       </c>
       <c r="E129" t="n">
-        <v>100.2</v>
+        <v>100.1363192</v>
       </c>
       <c r="F129" t="n">
-        <v>99.90000000000001</v>
+        <v>100.18153245</v>
       </c>
       <c r="G129" t="n">
-        <v>100.3</v>
+        <v>100.46848191</v>
       </c>
       <c r="H129" t="n">
-        <v>100.2</v>
+        <v>100.61652904</v>
       </c>
       <c r="I129" t="n">
-        <v>99.8</v>
+        <v>100.85937148</v>
       </c>
       <c r="J129" t="n">
-        <v>100.9</v>
+        <v>101.13707541</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>2011年7月</t>
+          <t>2011-10</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>100.01668078</v>
+        <v>99.72633363</v>
       </c>
       <c r="C130" t="n">
-        <v>100.29205897</v>
+        <v>99.87977567</v>
       </c>
       <c r="D130" t="n">
-        <v>100.64254268</v>
+        <v>100.20955291</v>
       </c>
       <c r="E130" t="n">
-        <v>100.20471137</v>
+        <v>100.10426434</v>
       </c>
       <c r="F130" t="n">
-        <v>100.08526962</v>
+        <v>100.08054106</v>
       </c>
       <c r="G130" t="n">
-        <v>100.46325302</v>
+        <v>100.09291703</v>
       </c>
       <c r="H130" t="n">
-        <v>100.19988516</v>
+        <v>100.48187178</v>
       </c>
       <c r="I130" t="n">
-        <v>99.44012902999999</v>
+        <v>101.55495966</v>
       </c>
       <c r="J130" t="n">
-        <v>101.17450571</v>
+        <v>99.82453254000001</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>2011年8月</t>
+          <t>2011-11</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>99.99185983</v>
+        <v>99.79702835000001</v>
       </c>
       <c r="C131" t="n">
-        <v>100.560285</v>
+        <v>100.2421074</v>
       </c>
       <c r="D131" t="n">
-        <v>100.09969004</v>
+        <v>99.24500591</v>
       </c>
       <c r="E131" t="n">
-        <v>100.20469723</v>
+        <v>100.28315343</v>
       </c>
       <c r="F131" t="n">
-        <v>100.2484776</v>
+        <v>100.0266531</v>
       </c>
       <c r="G131" t="n">
-        <v>100.30812416</v>
+        <v>99.81110193000001</v>
       </c>
       <c r="H131" t="n">
-        <v>100.21318535</v>
+        <v>100.33562776</v>
       </c>
       <c r="I131" t="n">
-        <v>99.92499775</v>
+        <v>101.44522744</v>
       </c>
       <c r="J131" t="n">
-        <v>100.58409459</v>
+        <v>99.2080763</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>2011年9月</t>
+          <t>2011-12</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>99.89424067</v>
+        <v>99.88721497</v>
       </c>
       <c r="C132" t="n">
-        <v>100.18826898</v>
+        <v>99.90276304</v>
       </c>
       <c r="D132" t="n">
-        <v>99.70992507</v>
+        <v>99.67103175</v>
       </c>
       <c r="E132" t="n">
-        <v>100.1363192</v>
+        <v>99.95293823999999</v>
       </c>
       <c r="F132" t="n">
-        <v>100.18153245</v>
+        <v>99.7613602</v>
       </c>
       <c r="G132" t="n">
-        <v>100.46848191</v>
+        <v>100.31190717</v>
       </c>
       <c r="H132" t="n">
-        <v>100.61652904</v>
+        <v>100.34583126</v>
       </c>
       <c r="I132" t="n">
-        <v>100.85937148</v>
+        <v>100.40666456</v>
       </c>
       <c r="J132" t="n">
-        <v>101.13707541</v>
+        <v>101.16995652</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>2012年10月</t>
+          <t>2012-01</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>100.12437997</v>
+        <v>100.36185439</v>
       </c>
       <c r="C133" t="n">
-        <v>100.19810863</v>
+        <v>100.09618498</v>
       </c>
       <c r="D133" t="n">
-        <v>100.23337788</v>
+        <v>101.0556851</v>
       </c>
       <c r="E133" t="n">
-        <v>100.00034833</v>
+        <v>100.44657722</v>
       </c>
       <c r="F133" t="n">
-        <v>100.21395505</v>
+        <v>100.21661244</v>
       </c>
       <c r="G133" t="n">
-        <v>99.90809891000001</v>
+        <v>101.49751529</v>
       </c>
       <c r="H133" t="n">
-        <v>100.08667896</v>
+        <v>100.11554568</v>
       </c>
       <c r="I133" t="n">
-        <v>100.88149898</v>
+        <v>99.01497977</v>
       </c>
       <c r="J133" t="n">
-        <v>99.1703675</v>
+        <v>104.16604217</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>2012年11月</t>
+          <t>2012-02</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>99.68886437</v>
+        <v>100.05674003</v>
       </c>
       <c r="C134" t="n">
-        <v>100.08371838</v>
+        <v>100.25602621</v>
       </c>
       <c r="D134" t="n">
-        <v>99.11211168</v>
+        <v>99.20687995999999</v>
       </c>
       <c r="E134" t="n">
-        <v>100.26009646</v>
+        <v>100.13372409</v>
       </c>
       <c r="F134" t="n">
-        <v>100.16097416</v>
+        <v>100.43077197</v>
       </c>
       <c r="G134" t="n">
-        <v>100.11772424</v>
+        <v>99.89203409</v>
       </c>
       <c r="H134" t="n">
-        <v>100.07047071</v>
+        <v>100.19791012</v>
       </c>
       <c r="I134" t="n">
-        <v>100.99501733</v>
+        <v>99.65385976</v>
       </c>
       <c r="J134" t="n">
-        <v>100.35140171</v>
+        <v>99.66478537</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>2012年12月</t>
+          <t>2012-03</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>99.84278492</v>
+        <v>100.19329782</v>
       </c>
       <c r="C135" t="n">
-        <v>100.03548257</v>
+        <v>100.07579325</v>
       </c>
       <c r="D135" t="n">
-        <v>99.80860147999999</v>
+        <v>99.88718574000001</v>
       </c>
       <c r="E135" t="n">
-        <v>100.0918072</v>
+        <v>99.97860034</v>
       </c>
       <c r="F135" t="n">
-        <v>100.13089599</v>
+        <v>100.40606211</v>
       </c>
       <c r="G135" t="n">
-        <v>100.78941398</v>
+        <v>100.20334902</v>
       </c>
       <c r="H135" t="n">
-        <v>100.16099407</v>
+        <v>100.17875109</v>
       </c>
       <c r="I135" t="n">
-        <v>100.03310034</v>
+        <v>100.44416663</v>
       </c>
       <c r="J135" t="n">
-        <v>102.43849723</v>
+        <v>100.21290241</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>2012年1月</t>
+          <t>2012-04</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>100.36185439</v>
+        <v>100.3935772</v>
       </c>
       <c r="C136" t="n">
-        <v>100.09618498</v>
+        <v>100.21438416</v>
       </c>
       <c r="D136" t="n">
-        <v>101.0556851</v>
+        <v>100.63566979</v>
       </c>
       <c r="E136" t="n">
-        <v>100.44657722</v>
+        <v>100.15852121</v>
       </c>
       <c r="F136" t="n">
-        <v>100.21661244</v>
+        <v>100.23033747</v>
       </c>
       <c r="G136" t="n">
-        <v>101.49751529</v>
+        <v>99.92528303</v>
       </c>
       <c r="H136" t="n">
-        <v>100.11554568</v>
+        <v>100.16780414</v>
       </c>
       <c r="I136" t="n">
-        <v>99.01497977</v>
+        <v>100.4522312</v>
       </c>
       <c r="J136" t="n">
-        <v>104.16604217</v>
+        <v>99.07947722</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>2012年2月</t>
+          <t>2012-05</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>100.05674003</v>
+        <v>99.7043453</v>
       </c>
       <c r="C137" t="n">
-        <v>100.25602621</v>
+        <v>100.07231298</v>
       </c>
       <c r="D137" t="n">
-        <v>99.20687995999999</v>
+        <v>99.91996659</v>
       </c>
       <c r="E137" t="n">
-        <v>100.13372409</v>
+        <v>100.11666046</v>
       </c>
       <c r="F137" t="n">
-        <v>100.43077197</v>
+        <v>99.95751005</v>
       </c>
       <c r="G137" t="n">
-        <v>99.89203409</v>
+        <v>99.72075837</v>
       </c>
       <c r="H137" t="n">
-        <v>100.19791012</v>
+        <v>100.18514133</v>
       </c>
       <c r="I137" t="n">
-        <v>99.65385976</v>
+        <v>100.07416475</v>
       </c>
       <c r="J137" t="n">
-        <v>99.66478537</v>
+        <v>99.22149521</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>2012年3月</t>
+          <t>2012-06</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>100.19329782</v>
+        <v>99.545732</v>
       </c>
       <c r="C138" t="n">
-        <v>100.07579325</v>
+        <v>100.14207402</v>
       </c>
       <c r="D138" t="n">
-        <v>99.88718574000001</v>
+        <v>99.99567424999999</v>
       </c>
       <c r="E138" t="n">
-        <v>99.97860034</v>
+        <v>100.14736319</v>
       </c>
       <c r="F138" t="n">
-        <v>100.40606211</v>
+        <v>100.01334009</v>
       </c>
       <c r="G138" t="n">
-        <v>100.20334902</v>
+        <v>99.44948540999999</v>
       </c>
       <c r="H138" t="n">
-        <v>100.17875109</v>
+        <v>100.12110333</v>
       </c>
       <c r="I138" t="n">
-        <v>100.44416663</v>
+        <v>99.97676894999999</v>
       </c>
       <c r="J138" t="n">
-        <v>100.21290241</v>
+        <v>98.38445036</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>2012年4月</t>
+          <t>2012-07</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>100.3935772</v>
+        <v>99.59701174</v>
       </c>
       <c r="C139" t="n">
-        <v>100.21438416</v>
+        <v>100.12427261</v>
       </c>
       <c r="D139" t="n">
-        <v>100.63566979</v>
+        <v>100.8204393</v>
       </c>
       <c r="E139" t="n">
-        <v>100.15852121</v>
+        <v>100.23488309</v>
       </c>
       <c r="F139" t="n">
-        <v>100.23033747</v>
+        <v>100.54988479</v>
       </c>
       <c r="G139" t="n">
-        <v>99.92528303</v>
+        <v>100.09805237</v>
       </c>
       <c r="H139" t="n">
-        <v>100.16780414</v>
+        <v>100.05170907</v>
       </c>
       <c r="I139" t="n">
-        <v>100.4522312</v>
+        <v>99.47946588000001</v>
       </c>
       <c r="J139" t="n">
-        <v>99.07947722</v>
+        <v>99.87580469</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>2012年5月</t>
+          <t>2012-08</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>99.7043453</v>
+        <v>100.06094168</v>
       </c>
       <c r="C140" t="n">
-        <v>100.07231298</v>
+        <v>100.13549104</v>
       </c>
       <c r="D140" t="n">
-        <v>99.91996659</v>
+        <v>100.08576463</v>
       </c>
       <c r="E140" t="n">
-        <v>100.11666046</v>
+        <v>100.04605308</v>
       </c>
       <c r="F140" t="n">
-        <v>99.95751005</v>
+        <v>100.35709524</v>
       </c>
       <c r="G140" t="n">
-        <v>99.72075837</v>
+        <v>100.57024443</v>
       </c>
       <c r="H140" t="n">
-        <v>100.18514133</v>
+        <v>100.12264005</v>
       </c>
       <c r="I140" t="n">
-        <v>100.07416475</v>
+        <v>99.76664112</v>
       </c>
       <c r="J140" t="n">
-        <v>99.22149521</v>
+        <v>101.51158475</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>2012年6月</t>
+          <t>2012-09</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>99.545732</v>
+        <v>100.43127981</v>
       </c>
       <c r="C141" t="n">
-        <v>100.14207402</v>
+        <v>100.29525366</v>
       </c>
       <c r="D141" t="n">
-        <v>99.99567424999999</v>
+        <v>100.32618758</v>
       </c>
       <c r="E141" t="n">
-        <v>100.14736319</v>
+        <v>100.02453003</v>
       </c>
       <c r="F141" t="n">
-        <v>100.01334009</v>
+        <v>100.27687417</v>
       </c>
       <c r="G141" t="n">
-        <v>99.44948540999999</v>
+        <v>100.3381463</v>
       </c>
       <c r="H141" t="n">
-        <v>100.12110333</v>
+        <v>100.04839837</v>
       </c>
       <c r="I141" t="n">
-        <v>99.97676894999999</v>
+        <v>101.12858015</v>
       </c>
       <c r="J141" t="n">
-        <v>98.38445036</v>
+        <v>100.23410053</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>2012年7月</t>
+          <t>2012-10</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>99.59701174</v>
+        <v>100.12437997</v>
       </c>
       <c r="C142" t="n">
-        <v>100.12427261</v>
+        <v>100.19810863</v>
       </c>
       <c r="D142" t="n">
-        <v>100.8204393</v>
+        <v>100.23337788</v>
       </c>
       <c r="E142" t="n">
-        <v>100.23488309</v>
+        <v>100.00034833</v>
       </c>
       <c r="F142" t="n">
-        <v>100.54988479</v>
+        <v>100.21395505</v>
       </c>
       <c r="G142" t="n">
-        <v>100.09805237</v>
+        <v>99.90809891000001</v>
       </c>
       <c r="H142" t="n">
-        <v>100.05170907</v>
+        <v>100.08667896</v>
       </c>
       <c r="I142" t="n">
-        <v>99.47946588000001</v>
+        <v>100.88149898</v>
       </c>
       <c r="J142" t="n">
-        <v>99.87580469</v>
+        <v>99.1703675</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>2012年8月</t>
+          <t>2012-11</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>100.06094168</v>
+        <v>99.68886437</v>
       </c>
       <c r="C143" t="n">
-        <v>100.13549104</v>
+        <v>100.08371838</v>
       </c>
       <c r="D143" t="n">
-        <v>100.08576463</v>
+        <v>99.11211168</v>
       </c>
       <c r="E143" t="n">
-        <v>100.04605308</v>
+        <v>100.26009646</v>
       </c>
       <c r="F143" t="n">
-        <v>100.35709524</v>
+        <v>100.16097416</v>
       </c>
       <c r="G143" t="n">
-        <v>100.57024443</v>
+        <v>100.11772424</v>
       </c>
       <c r="H143" t="n">
-        <v>100.12264005</v>
+        <v>100.07047071</v>
       </c>
       <c r="I143" t="n">
-        <v>99.76664112</v>
+        <v>100.99501733</v>
       </c>
       <c r="J143" t="n">
-        <v>101.51158475</v>
+        <v>100.35140171</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>2012年9月</t>
+          <t>2012-12</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>100.43127981</v>
+        <v>99.84278492</v>
       </c>
       <c r="C144" t="n">
-        <v>100.29525366</v>
+        <v>100.03548257</v>
       </c>
       <c r="D144" t="n">
-        <v>100.32618758</v>
+        <v>99.80860147999999</v>
       </c>
       <c r="E144" t="n">
-        <v>100.02453003</v>
+        <v>100.0918072</v>
       </c>
       <c r="F144" t="n">
-        <v>100.27687417</v>
+        <v>100.13089599</v>
       </c>
       <c r="G144" t="n">
-        <v>100.3381463</v>
+        <v>100.78941398</v>
       </c>
       <c r="H144" t="n">
-        <v>100.04839837</v>
+        <v>100.16099407</v>
       </c>
       <c r="I144" t="n">
-        <v>101.12858015</v>
+        <v>100.03310034</v>
       </c>
       <c r="J144" t="n">
-        <v>100.23410053</v>
+        <v>102.43849723</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>2013年10月</t>
+          <t>2013-01</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>99.68373473</v>
+        <v>100.1039441</v>
       </c>
       <c r="C145" t="n">
-        <v>100.06896528</v>
+        <v>100.1095127</v>
       </c>
       <c r="D145" t="n">
-        <v>100.79709397</v>
+        <v>100.50298688</v>
       </c>
       <c r="E145" t="n">
-        <v>100.14652746</v>
+        <v>100.29202993</v>
       </c>
       <c r="F145" t="n">
-        <v>100.18934189</v>
+        <v>100.15809396</v>
       </c>
       <c r="G145" t="n">
-        <v>100.05735523</v>
+        <v>101.01032288</v>
       </c>
       <c r="H145" t="n">
-        <v>100.03638652</v>
+        <v>100.00189386</v>
       </c>
       <c r="I145" t="n">
-        <v>100.99324504</v>
+        <v>99.61050539999999</v>
       </c>
       <c r="J145" t="n">
-        <v>99.59084141</v>
+        <v>102.80309558</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>2013年11月</t>
+          <t>2013-02</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>99.76893013</v>
+        <v>100.54575756</v>
       </c>
       <c r="C146" t="n">
-        <v>100.08806267</v>
+        <v>100.28935255</v>
       </c>
       <c r="D146" t="n">
-        <v>99.43497838</v>
+        <v>100.63247154</v>
       </c>
       <c r="E146" t="n">
-        <v>100.07250683</v>
+        <v>100.22724397</v>
       </c>
       <c r="F146" t="n">
-        <v>100.184957</v>
+        <v>100.31170664</v>
       </c>
       <c r="G146" t="n">
-        <v>99.93554376</v>
+        <v>101.05635463</v>
       </c>
       <c r="H146" t="n">
-        <v>100.06704142</v>
+        <v>99.91482624</v>
       </c>
       <c r="I146" t="n">
-        <v>100.56793754</v>
+        <v>99.30594019999999</v>
       </c>
       <c r="J146" t="n">
-        <v>99.77947999</v>
+        <v>102.67094883</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>2013年12月</t>
+          <t>2013-03</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>100.27361499</v>
+        <v>99.70360023000001</v>
       </c>
       <c r="C147" t="n">
-        <v>99.96906367</v>
+        <v>99.9749387</v>
       </c>
       <c r="D147" t="n">
-        <v>99.85553511000001</v>
+        <v>99.64705933</v>
       </c>
       <c r="E147" t="n">
-        <v>100.10737942</v>
+        <v>100.01001647</v>
       </c>
       <c r="F147" t="n">
-        <v>100.27941172</v>
+        <v>100.52144957</v>
       </c>
       <c r="G147" t="n">
-        <v>100.2813488</v>
+        <v>99.08677221000001</v>
       </c>
       <c r="H147" t="n">
-        <v>99.97007313</v>
+        <v>100.05625167</v>
       </c>
       <c r="I147" t="n">
-        <v>100.12396339</v>
+        <v>100.57806419</v>
       </c>
       <c r="J147" t="n">
-        <v>100.61274576</v>
+        <v>97.08356606</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>2013年1月</t>
+          <t>2013-04</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>100.1039441</v>
+        <v>99.55064096</v>
       </c>
       <c r="C148" t="n">
-        <v>100.1095127</v>
+        <v>100.02585347</v>
       </c>
       <c r="D148" t="n">
-        <v>100.50298688</v>
+        <v>100.42191112</v>
       </c>
       <c r="E148" t="n">
-        <v>100.29202993</v>
+        <v>100.11319661</v>
       </c>
       <c r="F148" t="n">
-        <v>100.15809396</v>
+        <v>100.20162605</v>
       </c>
       <c r="G148" t="n">
-        <v>101.01032288</v>
+        <v>100.23513768</v>
       </c>
       <c r="H148" t="n">
-        <v>100.00189386</v>
+        <v>99.95517851</v>
       </c>
       <c r="I148" t="n">
-        <v>99.61050539999999</v>
+        <v>100.65013198</v>
       </c>
       <c r="J148" t="n">
-        <v>102.80309558</v>
+        <v>100.40137716</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>2013年2月</t>
+          <t>2013-05</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>100.54575756</v>
+        <v>99.61818184000001</v>
       </c>
       <c r="C149" t="n">
-        <v>100.28935255</v>
+        <v>100.06755202</v>
       </c>
       <c r="D149" t="n">
-        <v>100.63247154</v>
+        <v>99.73534916</v>
       </c>
       <c r="E149" t="n">
-        <v>100.22724397</v>
+        <v>100.10754085</v>
       </c>
       <c r="F149" t="n">
-        <v>100.31170664</v>
+        <v>100.06249061</v>
       </c>
       <c r="G149" t="n">
-        <v>101.05635463</v>
+        <v>99.44031226</v>
       </c>
       <c r="H149" t="n">
-        <v>99.91482624</v>
+        <v>99.89792746000001</v>
       </c>
       <c r="I149" t="n">
-        <v>99.30594019999999</v>
+        <v>100.10755156</v>
       </c>
       <c r="J149" t="n">
-        <v>102.67094883</v>
+        <v>98.43725053</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>2013年3月</t>
+          <t>2013-06</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>99.70360023000001</v>
+        <v>100.02015033</v>
       </c>
       <c r="C150" t="n">
-        <v>99.9749387</v>
+        <v>100.03204001</v>
       </c>
       <c r="D150" t="n">
-        <v>99.64705933</v>
+        <v>100.0335055</v>
       </c>
       <c r="E150" t="n">
-        <v>100.01001647</v>
+        <v>100.0780049</v>
       </c>
       <c r="F150" t="n">
-        <v>100.52144957</v>
+        <v>100.08567149</v>
       </c>
       <c r="G150" t="n">
-        <v>99.08677221000001</v>
+        <v>100.00493499</v>
       </c>
       <c r="H150" t="n">
-        <v>100.05625167</v>
+        <v>99.89693504</v>
       </c>
       <c r="I150" t="n">
-        <v>100.57806419</v>
+        <v>99.72518367000001</v>
       </c>
       <c r="J150" t="n">
-        <v>97.08356606</v>
+        <v>100.00577213</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>2013年4月</t>
+          <t>2013-07</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>99.55064096</v>
+        <v>100.26022315</v>
       </c>
       <c r="C151" t="n">
-        <v>100.02585347</v>
+        <v>99.96646746</v>
       </c>
       <c r="D151" t="n">
-        <v>100.42191112</v>
+        <v>100.78567336</v>
       </c>
       <c r="E151" t="n">
-        <v>100.11319661</v>
+        <v>100.12694169</v>
       </c>
       <c r="F151" t="n">
-        <v>100.20162605</v>
+        <v>100.25067579</v>
       </c>
       <c r="G151" t="n">
-        <v>100.23513768</v>
+        <v>100.10361639</v>
       </c>
       <c r="H151" t="n">
-        <v>99.95517851</v>
+        <v>99.95805856</v>
       </c>
       <c r="I151" t="n">
-        <v>100.65013198</v>
+        <v>99.40236222</v>
       </c>
       <c r="J151" t="n">
-        <v>100.40137716</v>
+        <v>99.96119027</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>2013年5月</t>
+          <t>2013-08</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>99.61818184000001</v>
+        <v>100.165265</v>
       </c>
       <c r="C152" t="n">
-        <v>100.06755202</v>
+        <v>100.13745099</v>
       </c>
       <c r="D152" t="n">
-        <v>99.73534916</v>
+        <v>99.99613171</v>
       </c>
       <c r="E152" t="n">
-        <v>100.10754085</v>
+        <v>100.05099084</v>
       </c>
       <c r="F152" t="n">
-        <v>100.06249061</v>
+        <v>100.21774352</v>
       </c>
       <c r="G152" t="n">
-        <v>99.44031226</v>
+        <v>100.46497032</v>
       </c>
       <c r="H152" t="n">
-        <v>99.89792746000001</v>
+        <v>99.98286758</v>
       </c>
       <c r="I152" t="n">
-        <v>100.10755156</v>
+        <v>99.82953068</v>
       </c>
       <c r="J152" t="n">
-        <v>98.43725053</v>
+        <v>101.23379199</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>2013年6月</t>
+          <t>2013-09</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>100.02015033</v>
+        <v>100.20950853</v>
       </c>
       <c r="C153" t="n">
-        <v>100.03204001</v>
+        <v>100.17786718</v>
       </c>
       <c r="D153" t="n">
-        <v>100.0335055</v>
+        <v>101.00384662</v>
       </c>
       <c r="E153" t="n">
-        <v>100.0780049</v>
+        <v>100.00996604</v>
       </c>
       <c r="F153" t="n">
-        <v>100.08567149</v>
+        <v>100.27657152</v>
       </c>
       <c r="G153" t="n">
-        <v>100.00493499</v>
+        <v>100.81284348</v>
       </c>
       <c r="H153" t="n">
-        <v>99.89693504</v>
+        <v>99.84936157999999</v>
       </c>
       <c r="I153" t="n">
-        <v>99.72518367000001</v>
+        <v>101.16925058</v>
       </c>
       <c r="J153" t="n">
-        <v>100.00577213</v>
+        <v>101.54561922</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>2013年7月</t>
+          <t>2013-10</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>100.26022315</v>
+        <v>99.68373473</v>
       </c>
       <c r="C154" t="n">
-        <v>99.96646746</v>
+        <v>100.06896528</v>
       </c>
       <c r="D154" t="n">
-        <v>100.78567336</v>
+        <v>100.79709397</v>
       </c>
       <c r="E154" t="n">
-        <v>100.12694169</v>
+        <v>100.14652746</v>
       </c>
       <c r="F154" t="n">
-        <v>100.25067579</v>
+        <v>100.18934189</v>
       </c>
       <c r="G154" t="n">
-        <v>100.10361639</v>
+        <v>100.05735523</v>
       </c>
       <c r="H154" t="n">
-        <v>99.95805856</v>
+        <v>100.03638652</v>
       </c>
       <c r="I154" t="n">
-        <v>99.40236222</v>
+        <v>100.99324504</v>
       </c>
       <c r="J154" t="n">
-        <v>99.96119027</v>
+        <v>99.59084141</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>2013年8月</t>
+          <t>2013-11</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>100.165265</v>
+        <v>99.76893013</v>
       </c>
       <c r="C155" t="n">
-        <v>100.13745099</v>
+        <v>100.08806267</v>
       </c>
       <c r="D155" t="n">
-        <v>99.99613171</v>
+        <v>99.43497838</v>
       </c>
       <c r="E155" t="n">
-        <v>100.05099084</v>
+        <v>100.07250683</v>
       </c>
       <c r="F155" t="n">
-        <v>100.21774352</v>
+        <v>100.184957</v>
       </c>
       <c r="G155" t="n">
-        <v>100.46497032</v>
+        <v>99.93554376</v>
       </c>
       <c r="H155" t="n">
-        <v>99.98286758</v>
+        <v>100.06704142</v>
       </c>
       <c r="I155" t="n">
-        <v>99.82953068</v>
+        <v>100.56793754</v>
       </c>
       <c r="J155" t="n">
-        <v>101.23379199</v>
+        <v>99.77947999</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>2013年9月</t>
+          <t>2013-12</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>100.20950853</v>
+        <v>100.27361499</v>
       </c>
       <c r="C156" t="n">
-        <v>100.17786718</v>
+        <v>99.96906367</v>
       </c>
       <c r="D156" t="n">
-        <v>101.00384662</v>
+        <v>99.85553511000001</v>
       </c>
       <c r="E156" t="n">
-        <v>100.00996604</v>
+        <v>100.10737942</v>
       </c>
       <c r="F156" t="n">
-        <v>100.27657152</v>
+        <v>100.27941172</v>
       </c>
       <c r="G156" t="n">
-        <v>100.81284348</v>
+        <v>100.2813488</v>
       </c>
       <c r="H156" t="n">
-        <v>99.84936157999999</v>
+        <v>99.97007313</v>
       </c>
       <c r="I156" t="n">
-        <v>101.16925058</v>
+        <v>100.12396339</v>
       </c>
       <c r="J156" t="n">
-        <v>101.54561922</v>
+        <v>100.61274576</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>2014年10月</t>
+          <t>2014-01</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>99.68106407000001</v>
+        <v>100.40401555</v>
       </c>
       <c r="C157" t="n">
-        <v>100.13254138</v>
+        <v>100.34509712</v>
       </c>
       <c r="D157" t="n">
-        <v>99.99586365</v>
+        <v>100.96883652</v>
       </c>
       <c r="E157" t="n">
-        <v>100.20575249</v>
+        <v>100.41287552</v>
       </c>
       <c r="F157" t="n">
-        <v>100.18880361</v>
+        <v>100.20060707</v>
       </c>
       <c r="G157" t="n">
-        <v>100.03141593</v>
+        <v>100.99786994</v>
       </c>
       <c r="H157" t="n">
-        <v>100.10549921</v>
+        <v>99.6903336</v>
       </c>
       <c r="I157" t="n">
-        <v>100.97536984</v>
+        <v>99.47372386000001</v>
       </c>
       <c r="J157" t="n">
-        <v>99.75898447</v>
+        <v>102.42630128</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>2014年11月</t>
+          <t>2014-02</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>99.30162695</v>
+        <v>99.93340375</v>
       </c>
       <c r="C158" t="n">
-        <v>100.05305815</v>
+        <v>100.17723705</v>
       </c>
       <c r="D158" t="n">
-        <v>99.34127228</v>
+        <v>99.46030324</v>
       </c>
       <c r="E158" t="n">
-        <v>100.06134844</v>
+        <v>100.01187956</v>
       </c>
       <c r="F158" t="n">
-        <v>99.89656395999999</v>
+        <v>100.29246829</v>
       </c>
       <c r="G158" t="n">
-        <v>99.7763741</v>
+        <v>100.52884802</v>
       </c>
       <c r="H158" t="n">
-        <v>99.94321392000001</v>
+        <v>99.95206994</v>
       </c>
       <c r="I158" t="n">
-        <v>100.81987878</v>
+        <v>99.59760211</v>
       </c>
       <c r="J158" t="n">
-        <v>99.59748328000001</v>
+        <v>101.65976115</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>2014年12月</t>
+          <t>2014-03</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>99.67678218</v>
+        <v>99.72133982</v>
       </c>
       <c r="C159" t="n">
-        <v>100.22452051</v>
+        <v>100.10947119</v>
       </c>
       <c r="D159" t="n">
-        <v>99.75208544</v>
+        <v>99.6253667</v>
       </c>
       <c r="E159" t="n">
-        <v>100.06523002</v>
+        <v>99.98644514999999</v>
       </c>
       <c r="F159" t="n">
-        <v>99.93703659000001</v>
+        <v>100.24568266</v>
       </c>
       <c r="G159" t="n">
-        <v>100.34683648</v>
+        <v>99.5083137</v>
       </c>
       <c r="H159" t="n">
-        <v>99.96352962</v>
+        <v>100.08915193</v>
       </c>
       <c r="I159" t="n">
-        <v>100.13235202</v>
+        <v>100.68632894</v>
       </c>
       <c r="J159" t="n">
-        <v>101.15145484</v>
+        <v>98.42809155</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>2014年1月</t>
+          <t>2014-04</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>100.40401555</v>
+        <v>99.99776582</v>
       </c>
       <c r="C160" t="n">
-        <v>100.34509712</v>
+        <v>100.04659191</v>
       </c>
       <c r="D160" t="n">
-        <v>100.96883652</v>
+        <v>100.28399318</v>
       </c>
       <c r="E160" t="n">
-        <v>100.41287552</v>
+        <v>100.0987597</v>
       </c>
       <c r="F160" t="n">
-        <v>100.20060707</v>
+        <v>100.09142275</v>
       </c>
       <c r="G160" t="n">
-        <v>100.99786994</v>
+        <v>99.66393158</v>
       </c>
       <c r="H160" t="n">
-        <v>99.6903336</v>
+        <v>99.9619936</v>
       </c>
       <c r="I160" t="n">
-        <v>99.47372386000001</v>
+        <v>100.62084119</v>
       </c>
       <c r="J160" t="n">
-        <v>102.42630128</v>
+        <v>98.67813218000001</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>2014年2月</t>
+          <t>2014-05</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>99.93340375</v>
+        <v>100.14166456</v>
       </c>
       <c r="C161" t="n">
-        <v>100.17723705</v>
+        <v>100.12081831</v>
       </c>
       <c r="D161" t="n">
-        <v>99.46030324</v>
+        <v>99.87425036</v>
       </c>
       <c r="E161" t="n">
-        <v>100.01187956</v>
+        <v>100.07702192</v>
       </c>
       <c r="F161" t="n">
-        <v>100.29246829</v>
+        <v>99.99492893</v>
       </c>
       <c r="G161" t="n">
-        <v>100.52884802</v>
+        <v>100.10055298</v>
       </c>
       <c r="H161" t="n">
-        <v>99.95206994</v>
+        <v>99.94559387</v>
       </c>
       <c r="I161" t="n">
-        <v>99.59760211</v>
+        <v>100.30494875</v>
       </c>
       <c r="J161" t="n">
-        <v>101.65976115</v>
+        <v>100.18480084</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>2014年3月</t>
+          <t>2014-06</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>99.72133982</v>
+        <v>100.08418986</v>
       </c>
       <c r="C162" t="n">
-        <v>100.10947119</v>
+        <v>100.06360035</v>
       </c>
       <c r="D162" t="n">
-        <v>99.6253667</v>
+        <v>100.01093162</v>
       </c>
       <c r="E162" t="n">
-        <v>99.98644514999999</v>
+        <v>100.1075088</v>
       </c>
       <c r="F162" t="n">
-        <v>100.24568266</v>
+        <v>99.98168424000001</v>
       </c>
       <c r="G162" t="n">
-        <v>99.5083137</v>
+        <v>99.86711314999999</v>
       </c>
       <c r="H162" t="n">
-        <v>100.08915193</v>
+        <v>99.92061846999999</v>
       </c>
       <c r="I162" t="n">
-        <v>100.68632894</v>
+        <v>99.81654303000001</v>
       </c>
       <c r="J162" t="n">
-        <v>98.42809155</v>
+        <v>99.60329541</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>2014年4月</t>
+          <t>2014-07</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>99.99776582</v>
+        <v>100.29501711</v>
       </c>
       <c r="C163" t="n">
-        <v>100.04659191</v>
+        <v>100.11346686</v>
       </c>
       <c r="D163" t="n">
-        <v>100.28399318</v>
+        <v>100.80926235</v>
       </c>
       <c r="E163" t="n">
-        <v>100.0987597</v>
+        <v>100.04471341</v>
       </c>
       <c r="F163" t="n">
-        <v>100.09142275</v>
+        <v>100.04600828</v>
       </c>
       <c r="G163" t="n">
-        <v>99.66393158</v>
+        <v>100.05380941</v>
       </c>
       <c r="H163" t="n">
-        <v>99.9619936</v>
+        <v>99.96902504000001</v>
       </c>
       <c r="I163" t="n">
-        <v>100.62084119</v>
+        <v>99.43283027</v>
       </c>
       <c r="J163" t="n">
-        <v>98.67813218000001</v>
+        <v>99.87920090999999</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>2014年5月</t>
+          <t>2014-08</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>100.14166456</v>
+        <v>99.66781520000001</v>
       </c>
       <c r="C164" t="n">
-        <v>100.12081831</v>
+        <v>100.10129593</v>
       </c>
       <c r="D164" t="n">
-        <v>99.87425036</v>
+        <v>99.81598279000001</v>
       </c>
       <c r="E164" t="n">
-        <v>100.07702192</v>
+        <v>100.00692456</v>
       </c>
       <c r="F164" t="n">
-        <v>99.99492893</v>
+        <v>100.05266825</v>
       </c>
       <c r="G164" t="n">
-        <v>100.10055298</v>
+        <v>100.17592267</v>
       </c>
       <c r="H164" t="n">
-        <v>99.94559387</v>
+        <v>99.90815147000001</v>
       </c>
       <c r="I164" t="n">
-        <v>100.30494875</v>
+        <v>99.79682185999999</v>
       </c>
       <c r="J164" t="n">
-        <v>100.18480084</v>
+        <v>100.69408357</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>2014年6月</t>
+          <t>2014-09</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>100.08418986</v>
+        <v>99.68936835</v>
       </c>
       <c r="C165" t="n">
-        <v>100.06360035</v>
+        <v>100.0345437</v>
       </c>
       <c r="D165" t="n">
-        <v>100.01093162</v>
+        <v>100.94977543</v>
       </c>
       <c r="E165" t="n">
-        <v>100.1075088</v>
+        <v>100.0470782</v>
       </c>
       <c r="F165" t="n">
-        <v>99.98168424000001</v>
+        <v>100.07557907</v>
       </c>
       <c r="G165" t="n">
-        <v>99.86711314999999</v>
+        <v>100.4536683</v>
       </c>
       <c r="H165" t="n">
-        <v>99.92061846999999</v>
+        <v>99.878191</v>
       </c>
       <c r="I165" t="n">
-        <v>99.81654303000001</v>
+        <v>100.95615209</v>
       </c>
       <c r="J165" t="n">
-        <v>99.60329541</v>
+        <v>100.83321013</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>2014年7月</t>
+          <t>2014-10</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>100.29501711</v>
+        <v>99.68106407000001</v>
       </c>
       <c r="C166" t="n">
-        <v>100.11346686</v>
+        <v>100.13254138</v>
       </c>
       <c r="D166" t="n">
-        <v>100.80926235</v>
+        <v>99.99586365</v>
       </c>
       <c r="E166" t="n">
-        <v>100.04471341</v>
+        <v>100.20575249</v>
       </c>
       <c r="F166" t="n">
-        <v>100.04600828</v>
+        <v>100.18880361</v>
       </c>
       <c r="G166" t="n">
-        <v>100.05380941</v>
+        <v>100.03141593</v>
       </c>
       <c r="H166" t="n">
-        <v>99.96902504000001</v>
+        <v>100.10549921</v>
       </c>
       <c r="I166" t="n">
-        <v>99.43283027</v>
+        <v>100.97536984</v>
       </c>
       <c r="J166" t="n">
-        <v>99.87920090999999</v>
+        <v>99.75898447</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>2014年8月</t>
+          <t>2014-11</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>99.66781520000001</v>
+        <v>99.30162695</v>
       </c>
       <c r="C167" t="n">
-        <v>100.10129593</v>
+        <v>100.05305815</v>
       </c>
       <c r="D167" t="n">
-        <v>99.81598279000001</v>
+        <v>99.34127228</v>
       </c>
       <c r="E167" t="n">
-        <v>100.00692456</v>
+        <v>100.06134844</v>
       </c>
       <c r="F167" t="n">
-        <v>100.05266825</v>
+        <v>99.89656395999999</v>
       </c>
       <c r="G167" t="n">
-        <v>100.17592267</v>
+        <v>99.7763741</v>
       </c>
       <c r="H167" t="n">
-        <v>99.90815147000001</v>
+        <v>99.94321392000001</v>
       </c>
       <c r="I167" t="n">
-        <v>99.79682185999999</v>
+        <v>100.81987878</v>
       </c>
       <c r="J167" t="n">
-        <v>100.69408357</v>
+        <v>99.59748328000001</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>2014年9月</t>
+          <t>2014-12</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>99.68936835</v>
+        <v>99.67678218</v>
       </c>
       <c r="C168" t="n">
-        <v>100.0345437</v>
+        <v>100.22452051</v>
       </c>
       <c r="D168" t="n">
-        <v>100.94977543</v>
+        <v>99.75208544</v>
       </c>
       <c r="E168" t="n">
-        <v>100.0470782</v>
+        <v>100.06523002</v>
       </c>
       <c r="F168" t="n">
-        <v>100.07557907</v>
+        <v>99.93703659000001</v>
       </c>
       <c r="G168" t="n">
-        <v>100.4536683</v>
+        <v>100.34683648</v>
       </c>
       <c r="H168" t="n">
-        <v>99.878191</v>
+        <v>99.96352962</v>
       </c>
       <c r="I168" t="n">
-        <v>100.95615209</v>
+        <v>100.13235202</v>
       </c>
       <c r="J168" t="n">
-        <v>100.83321013</v>
+        <v>101.15145484</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>2015年10月</t>
+          <t>2015-01</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>99.97453899999999</v>
+        <v>99.56214303</v>
       </c>
       <c r="C169" t="n">
-        <v>100.22967564</v>
+        <v>100.42366818</v>
       </c>
       <c r="D169" t="n">
-        <v>99.72736786</v>
+        <v>100.3936146</v>
       </c>
       <c r="E169" t="n">
-        <v>100.04559191</v>
+        <v>100.19821212</v>
       </c>
       <c r="F169" t="n">
-        <v>100.01972922</v>
+        <v>100.02578372</v>
       </c>
       <c r="G169" t="n">
-        <v>99.70831081</v>
+        <v>100.25981903</v>
       </c>
       <c r="H169" t="n">
-        <v>100.07758598</v>
+        <v>99.96194713</v>
       </c>
       <c r="I169" t="n">
-        <v>100.61513245</v>
+        <v>99.70669951000001</v>
       </c>
       <c r="J169" t="n">
-        <v>98.99944094</v>
+        <v>100.68647034</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>2015年11月</t>
+          <t>2015-02</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>99.75076704</v>
+        <v>100.47230997</v>
       </c>
       <c r="C170" t="n">
-        <v>100.40366504</v>
+        <v>100.47108324</v>
       </c>
       <c r="D170" t="n">
-        <v>99.42215682</v>
+        <v>100.98546769</v>
       </c>
       <c r="E170" t="n">
-        <v>100.05231454</v>
+        <v>100.55097642</v>
       </c>
       <c r="F170" t="n">
-        <v>100.00366068</v>
+        <v>100.03937335</v>
       </c>
       <c r="G170" t="n">
-        <v>99.99129857</v>
+        <v>101.19460288</v>
       </c>
       <c r="H170" t="n">
-        <v>100.02437074</v>
+        <v>99.79077891</v>
       </c>
       <c r="I170" t="n">
-        <v>100.59000107</v>
+        <v>99.67084857</v>
       </c>
       <c r="J170" t="n">
-        <v>99.96942772</v>
+        <v>102.92306298</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>2015年12月</t>
+          <t>2015-03</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>99.81349118999999</v>
+        <v>99.88461506</v>
       </c>
       <c r="C171" t="n">
-        <v>100.169364</v>
+        <v>99.76813783</v>
       </c>
       <c r="D171" t="n">
-        <v>99.86051193999999</v>
+        <v>99.36716269</v>
       </c>
       <c r="E171" t="n">
-        <v>100.03785874</v>
+        <v>99.73447277</v>
       </c>
       <c r="F171" t="n">
-        <v>99.99239525</v>
+        <v>100.30021327</v>
       </c>
       <c r="G171" t="n">
-        <v>100.49652955</v>
+        <v>99.45402113999999</v>
       </c>
       <c r="H171" t="n">
-        <v>99.97272689</v>
+        <v>100.11890352</v>
       </c>
       <c r="I171" t="n">
-        <v>99.98538825999999</v>
+        <v>100.76297446</v>
       </c>
       <c r="J171" t="n">
-        <v>101.53095379</v>
+        <v>98.39660436</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>2015年1月</t>
+          <t>2015-04</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>99.56214303</v>
+        <v>99.98345696</v>
       </c>
       <c r="C172" t="n">
-        <v>100.42366818</v>
+        <v>100.23898614</v>
       </c>
       <c r="D172" t="n">
-        <v>100.3936146</v>
+        <v>100.35888204</v>
       </c>
       <c r="E172" t="n">
-        <v>100.19821212</v>
+        <v>100.02242493</v>
       </c>
       <c r="F172" t="n">
-        <v>100.02578372</v>
+        <v>100.07315844</v>
       </c>
       <c r="G172" t="n">
-        <v>100.25981903</v>
+        <v>99.79496450000001</v>
       </c>
       <c r="H172" t="n">
-        <v>99.96194713</v>
+        <v>99.989295</v>
       </c>
       <c r="I172" t="n">
-        <v>99.70669951000001</v>
+        <v>100.45756373</v>
       </c>
       <c r="J172" t="n">
-        <v>100.68647034</v>
+        <v>99.0624162</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>2015年2月</t>
+          <t>2015-05</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>100.47230997</v>
+        <v>100.36017387</v>
       </c>
       <c r="C173" t="n">
-        <v>100.47108324</v>
+        <v>100.11704124</v>
       </c>
       <c r="D173" t="n">
-        <v>100.98546769</v>
+        <v>99.91639718</v>
       </c>
       <c r="E173" t="n">
-        <v>100.55097642</v>
+        <v>99.99509711</v>
       </c>
       <c r="F173" t="n">
-        <v>100.03937335</v>
+        <v>100.09582796</v>
       </c>
       <c r="G173" t="n">
-        <v>101.19460288</v>
+        <v>99.82611973</v>
       </c>
       <c r="H173" t="n">
-        <v>99.79077891</v>
+        <v>102.13732205</v>
       </c>
       <c r="I173" t="n">
-        <v>99.67084857</v>
+        <v>100.27631587</v>
       </c>
       <c r="J173" t="n">
-        <v>102.92306298</v>
+        <v>99.07994604</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>2015年3月</t>
+          <t>2015-06</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>99.88461506</v>
+        <v>99.92023702</v>
       </c>
       <c r="C174" t="n">
-        <v>99.76813783</v>
+        <v>100.24258734</v>
       </c>
       <c r="D174" t="n">
-        <v>99.36716269</v>
+        <v>100.05715514</v>
       </c>
       <c r="E174" t="n">
-        <v>99.73447277</v>
+        <v>100.08773694</v>
       </c>
       <c r="F174" t="n">
-        <v>100.30021327</v>
+        <v>100.04440081</v>
       </c>
       <c r="G174" t="n">
-        <v>99.45402113999999</v>
+        <v>100.02508881</v>
       </c>
       <c r="H174" t="n">
-        <v>100.11890352</v>
+        <v>101.72745129</v>
       </c>
       <c r="I174" t="n">
-        <v>100.76297446</v>
+        <v>99.90390945</v>
       </c>
       <c r="J174" t="n">
-        <v>98.39660436</v>
+        <v>99.85412531999999</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>2015年4月</t>
+          <t>2015-07</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>99.98345696</v>
+        <v>99.98122076999999</v>
       </c>
       <c r="C175" t="n">
-        <v>100.23898614</v>
+        <v>100.09649473</v>
       </c>
       <c r="D175" t="n">
-        <v>100.35888204</v>
+        <v>100.75549772</v>
       </c>
       <c r="E175" t="n">
-        <v>100.02242493</v>
+        <v>100.04069634</v>
       </c>
       <c r="F175" t="n">
-        <v>100.07315844</v>
+        <v>100.05060141</v>
       </c>
       <c r="G175" t="n">
-        <v>99.79496450000001</v>
+        <v>100.30686906</v>
       </c>
       <c r="H175" t="n">
-        <v>99.989295</v>
+        <v>100.06256728</v>
       </c>
       <c r="I175" t="n">
-        <v>100.45756373</v>
+        <v>99.46702763</v>
       </c>
       <c r="J175" t="n">
-        <v>99.0624162</v>
+        <v>100.73517555</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>2015年5月</t>
+          <t>2015-08</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>100.36017387</v>
+        <v>99.37894093</v>
       </c>
       <c r="C176" t="n">
-        <v>100.11704124</v>
+        <v>100.12433215</v>
       </c>
       <c r="D176" t="n">
-        <v>99.91639718</v>
+        <v>99.94732337000001</v>
       </c>
       <c r="E176" t="n">
-        <v>99.99509711</v>
+        <v>99.97104215</v>
       </c>
       <c r="F176" t="n">
-        <v>100.09582796</v>
+        <v>100.04076713</v>
       </c>
       <c r="G176" t="n">
-        <v>99.82611973</v>
+        <v>100.4794943</v>
       </c>
       <c r="H176" t="n">
-        <v>102.13732205</v>
+        <v>100.04167366</v>
       </c>
       <c r="I176" t="n">
-        <v>100.27631587</v>
+        <v>99.78033665</v>
       </c>
       <c r="J176" t="n">
-        <v>99.07994604</v>
+        <v>101.62516803</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>2015年6月</t>
+          <t>2015-09</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>99.92023702</v>
+        <v>99.64339692999999</v>
       </c>
       <c r="C177" t="n">
-        <v>100.24258734</v>
+        <v>100.19368674</v>
       </c>
       <c r="D177" t="n">
-        <v>100.05715514</v>
+        <v>100.52641486</v>
       </c>
       <c r="E177" t="n">
-        <v>100.08773694</v>
+        <v>100.06622356</v>
       </c>
       <c r="F177" t="n">
-        <v>100.04440081</v>
+        <v>100.09058386</v>
       </c>
       <c r="G177" t="n">
-        <v>100.02508881</v>
+        <v>100.0992</v>
       </c>
       <c r="H177" t="n">
-        <v>101.72745129</v>
+        <v>99.91340891</v>
       </c>
       <c r="I177" t="n">
-        <v>99.90390945</v>
+        <v>100.82342861</v>
       </c>
       <c r="J177" t="n">
-        <v>99.85412531999999</v>
+        <v>99.90578187</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>2015年7月</t>
+          <t>2015-10</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>99.98122076999999</v>
+        <v>99.97453899999999</v>
       </c>
       <c r="C178" t="n">
-        <v>100.09649473</v>
+        <v>100.22967564</v>
       </c>
       <c r="D178" t="n">
-        <v>100.75549772</v>
+        <v>99.72736786</v>
       </c>
       <c r="E178" t="n">
-        <v>100.04069634</v>
+        <v>100.04559191</v>
       </c>
       <c r="F178" t="n">
-        <v>100.05060141</v>
+        <v>100.01972922</v>
       </c>
       <c r="G178" t="n">
-        <v>100.30686906</v>
+        <v>99.70831081</v>
       </c>
       <c r="H178" t="n">
-        <v>100.06256728</v>
+        <v>100.07758598</v>
       </c>
       <c r="I178" t="n">
-        <v>99.46702763</v>
+        <v>100.61513245</v>
       </c>
       <c r="J178" t="n">
-        <v>100.73517555</v>
+        <v>98.99944094</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>2015年8月</t>
+          <t>2015-11</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>99.37894093</v>
+        <v>99.75076704</v>
       </c>
       <c r="C179" t="n">
-        <v>100.12433215</v>
+        <v>100.40366504</v>
       </c>
       <c r="D179" t="n">
-        <v>99.94732337000001</v>
+        <v>99.42215682</v>
       </c>
       <c r="E179" t="n">
-        <v>99.97104215</v>
+        <v>100.05231454</v>
       </c>
       <c r="F179" t="n">
-        <v>100.04076713</v>
+        <v>100.00366068</v>
       </c>
       <c r="G179" t="n">
-        <v>100.4794943</v>
+        <v>99.99129857</v>
       </c>
       <c r="H179" t="n">
-        <v>100.04167366</v>
+        <v>100.02437074</v>
       </c>
       <c r="I179" t="n">
-        <v>99.78033665</v>
+        <v>100.59000107</v>
       </c>
       <c r="J179" t="n">
-        <v>101.62516803</v>
+        <v>99.96942772</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>2015年9月</t>
+          <t>2015-12</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>99.64339692999999</v>
+        <v>99.81349118999999</v>
       </c>
       <c r="C180" t="n">
-        <v>100.19368674</v>
+        <v>100.169364</v>
       </c>
       <c r="D180" t="n">
-        <v>100.52641486</v>
+        <v>99.86051193999999</v>
       </c>
       <c r="E180" t="n">
-        <v>100.06622356</v>
+        <v>100.03785874</v>
       </c>
       <c r="F180" t="n">
-        <v>100.09058386</v>
+        <v>99.99239525</v>
       </c>
       <c r="G180" t="n">
-        <v>100.0992</v>
+        <v>100.49652955</v>
       </c>
       <c r="H180" t="n">
-        <v>99.91340891</v>
+        <v>99.97272689</v>
       </c>
       <c r="I180" t="n">
-        <v>100.82342861</v>
+        <v>99.98538825999999</v>
       </c>
       <c r="J180" t="n">
-        <v>99.90578187</v>
+        <v>101.53095379</v>
       </c>
     </row>
   </sheetData>
